--- a/builtins/data/helpdoc/DND/15_菲资本的巨龙宝库FTD.xlsx
+++ b/builtins/data/helpdoc/DND/15_菲资本的巨龙宝库FTD.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9300" firstSheet="2" activeTab="2"/>
+    <workbookView windowWidth="18530" windowHeight="7270" firstSheet="2" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="FTD职业" sheetId="6" r:id="rId1"/>
@@ -896,7 +896,7 @@
 庇护之翼Protective Wings。你可以现出庇护之翼，保护你或者其他人免受攻击。在你或5尺内你可见的其他生物被一次攻击命中时，你可以使用你的反应来在你背后暂时显现出虚幻的翅膀。你使目标对抗该次攻击的AC获得加值，数值等同于你的熟练加值，此举可能导致该攻击丢失。你可以使用此反应等同于你熟练加值的次数，你在完成一次长休后重获所有已使用的次数。</t>
   </si>
   <si>
-    <t>5e 阿莎德隆奔行</t>
+    <t>阿莎德隆奔行</t>
   </si>
   <si>
     <t>阿莎德隆奔行 Ashardalon's Stride(FTD)
@@ -917,7 +917,7 @@
     <t>#FTD</t>
   </si>
   <si>
-    <t>5e 龙类变形</t>
+    <t>龙类变形</t>
   </si>
   <si>
     <t>龙类变形 Draconic Transformation(FTD)
@@ -933,7 +933,7 @@
 飞翼：虚体的飞翼从你背后长出，使你获得60尺飞行速度。</t>
   </si>
   <si>
-    <t>5e 费资本铂金盾</t>
+    <t>费资本铂金盾</t>
   </si>
   <si>
     <t>费茨本铂金盾/菲兹班铂金盾</t>
@@ -953,7 +953,7 @@
 在之后的回合内以一个附赠动作，你可以将该力场移动至力场周围60尺内的另一个生物身上。</t>
   </si>
   <si>
-    <t>5e 纳撒尔恶作剧</t>
+    <t>纳撒尔恶作剧</t>
   </si>
   <si>
     <t>纳撒尔恶作剧 Nathair's Mischief(FTD)
@@ -972,7 +972,7 @@
 4   一滴滴蜜糖出现并在矩形内悬停，将其内变成困难地形，直至你的下回合开始。</t>
   </si>
   <si>
-    <t>5e 劳洛希姆心灵长枪</t>
+    <t>劳洛希姆心灵长枪</t>
   </si>
   <si>
     <t>劳洛希姆心灵长枪 Raulothim's Psychic Lance(FTD)
@@ -987,7 +987,7 @@
 升环施法效应：当你用5环或更高的法术位施展此法术时，你使用的法术位每比4环高一环，法术的伤害增加1d6。</t>
   </si>
   <si>
-    <t>5e 莱姆束缚之霜</t>
+    <t>莱姆束缚之霜</t>
   </si>
   <si>
     <t>莱姆束缚之霜 Rime's Binding Ice(FTD)
@@ -1001,7 +1001,7 @@
 升环施法效应：当你用3环或更高的法术位施展此法术时，你使用的法术位每比2环高一环，法术的伤害增加1d8。</t>
   </si>
   <si>
-    <t>5e 龙类灵魄召唤术</t>
+    <t>龙类灵魄召唤术</t>
   </si>
   <si>
     <t>龙类精魂召唤术</t>
@@ -3452,7 +3452,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3602,6 +3602,13 @@
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -4060,8 +4067,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -4426,22 +4436,22 @@
       <selection activeCell="A7" sqref="$A7:$XFD7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="18.9074074074074" customWidth="1"/>
-    <col min="2" max="2" width="17.2685185185185" customWidth="1"/>
-    <col min="3" max="3" width="88.0925925925926" style="6" customWidth="1"/>
-    <col min="5" max="5" width="7.88888888888889" customWidth="1"/>
+    <col min="1" max="1" width="18.9090909090909" customWidth="1"/>
+    <col min="2" max="2" width="17.2727272727273" customWidth="1"/>
+    <col min="3" max="3" width="88.0909090909091" style="7" customWidth="1"/>
+    <col min="5" max="5" width="7.89090909090909" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A1" s="3" t="s">
+    <row r="1" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
@@ -4450,155 +4460,179 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A2" s="3" t="s">
+    <row r="2" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
+      <c r="A2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A3" s="3" t="s">
+    <row r="3" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
+      <c r="A3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3" t="s">
+      <c r="B3" s="4"/>
+      <c r="C3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A4" s="3" t="s">
+    <row r="4" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
+      <c r="A4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3" t="s">
+      <c r="B4" s="4"/>
+      <c r="C4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="5" s="1" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A5" s="3" t="s">
+    <row r="5" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
+      <c r="A5" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3" t="s">
+      <c r="B5" s="4"/>
+      <c r="C5" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" s="1" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A6" s="3" t="s">
+    <row r="6" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
+      <c r="A6" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3" t="s">
+      <c r="B6" s="4"/>
+      <c r="C6" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="7" s="1" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A7" s="3" t="s">
+    <row r="7" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
+      <c r="A7" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3" t="s">
+      <c r="B7" s="4"/>
+      <c r="C7" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" s="1" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A8" s="3" t="s">
+    <row r="8" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
+      <c r="A8" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="F8" s="4" t="s">
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="5" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="9" s="1" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A9" s="3" t="s">
+    <row r="9" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
+      <c r="A9" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3" t="s">
+      <c r="B9" s="4"/>
+      <c r="C9" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="F9" s="4" t="s">
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="5" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="10" s="1" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A10" s="3" t="s">
+    <row r="10" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
+      <c r="A10" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3" t="s">
+      <c r="B10" s="4"/>
+      <c r="C10" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="F10" s="4" t="s">
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="5" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="11" s="1" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A11" s="3" t="s">
+    <row r="11" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
+      <c r="A11" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3" t="s">
+      <c r="B11" s="4"/>
+      <c r="C11" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="F11" s="4" t="s">
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="5" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="12" s="1" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A12" s="3" t="s">
+    <row r="12" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
+      <c r="A12" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3" t="s">
+      <c r="B12" s="4"/>
+      <c r="C12" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="F12" s="4" t="s">
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="5" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="13" s="1" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A13" s="3" t="s">
+    <row r="13" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
+      <c r="A13" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3" t="s">
+      <c r="B13" s="4"/>
+      <c r="C13" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="F13" s="4" t="s">
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="5" t="s">
         <v>23</v>
       </c>
     </row>
@@ -4618,22 +4652,22 @@
       <selection activeCell="A2" sqref="$A2:$XFD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.81481481481481" defaultRowHeight="14.4" outlineLevelRow="5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9.81818181818182" defaultRowHeight="14" outlineLevelRow="5" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="18.5462962962963" style="1" customWidth="1"/>
-    <col min="2" max="2" width="9.4537037037037" style="1" customWidth="1"/>
-    <col min="3" max="3" width="126.231481481481" style="2" customWidth="1"/>
-    <col min="4" max="16384" width="9.81481481481481" style="1"/>
+    <col min="1" max="1" width="18.5454545454545" style="2" customWidth="1"/>
+    <col min="2" max="2" width="9.45454545454546" style="2" customWidth="1"/>
+    <col min="3" max="3" width="126.227272727273" style="3" customWidth="1"/>
+    <col min="4" max="16384" width="9.81818181818182" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A1" s="3" t="s">
+    <row r="1" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
@@ -4642,57 +4676,57 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A2" s="3" t="s">
+    <row r="2" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
+      <c r="A2" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3" t="s">
+      <c r="B2" s="4"/>
+      <c r="C2" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="5" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A3" s="3" t="s">
+    <row r="3" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
+      <c r="A3" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3" t="s">
+      <c r="B3" s="4"/>
+      <c r="C3" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="5" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A4" s="3" t="s">
+    <row r="4" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
+      <c r="A4" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3" t="s">
+      <c r="B4" s="4"/>
+      <c r="C4" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="5" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="5" s="1" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="F5" s="4"/>
-    </row>
-    <row r="6" s="1" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="F6" s="4"/>
+    <row r="5" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
+      <c r="A5" s="4"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="F5" s="5"/>
+    </row>
+    <row r="6" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
+      <c r="A6" s="4"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="F6" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4707,28 +4741,28 @@
   <sheetPr/>
   <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="$A4:$XFD4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="19.5555555555556" style="5" customWidth="1"/>
-    <col min="2" max="2" width="21.3333333333333" style="5" customWidth="1"/>
-    <col min="3" max="3" width="99.7777777777778" style="5" customWidth="1"/>
-    <col min="4" max="4" width="27.4444444444444" style="5" customWidth="1"/>
-    <col min="5" max="5" width="17.8888888888889" style="5" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="5"/>
+    <col min="1" max="1" width="19.5545454545455" style="6" customWidth="1"/>
+    <col min="2" max="2" width="21.3363636363636" style="6" customWidth="1"/>
+    <col min="3" max="3" width="99.7818181818182" style="6" customWidth="1"/>
+    <col min="4" max="4" width="27.4454545454545" style="6" customWidth="1"/>
+    <col min="5" max="5" width="17.8909090909091" style="6" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A1" s="3" t="s">
+    <row r="1" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
@@ -4737,220 +4771,220 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A2" s="3" t="s">
+    <row r="2" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
+      <c r="A2" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3" t="s">
+      <c r="B2" s="4"/>
+      <c r="C2" s="4" t="s">
         <v>42</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="5" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A3" s="3" t="s">
+    <row r="3" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
+      <c r="A3" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3" t="s">
+      <c r="B3" s="4"/>
+      <c r="C3" s="4" t="s">
         <v>46</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="5" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A4" s="3" t="s">
+    <row r="4" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
+      <c r="A4" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="4" t="s">
         <v>49</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="5" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="5" s="1" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A5" s="3" t="s">
+    <row r="5" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
+      <c r="A5" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3" t="s">
+      <c r="B5" s="4"/>
+      <c r="C5" s="4" t="s">
         <v>51</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="F5" s="5" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="6" s="1" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A6" s="3" t="s">
+    <row r="6" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
+      <c r="A6" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3" t="s">
+      <c r="B6" s="4"/>
+      <c r="C6" s="4" t="s">
         <v>53</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="F6" s="5" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="7" s="1" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A7" s="3" t="s">
+    <row r="7" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
+      <c r="A7" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3" t="s">
+      <c r="B7" s="4"/>
+      <c r="C7" s="4" t="s">
         <v>55</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="F7" s="5" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="8" s="1" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A8" s="3" t="s">
+    <row r="8" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
+      <c r="A8" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="4" t="s">
         <v>58</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="F8" s="4" t="s">
+      <c r="F8" s="5" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="9" s="1" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="F9" s="4"/>
-    </row>
-    <row r="10" s="1" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="F10" s="4"/>
-    </row>
-    <row r="11" s="1" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A11" s="3"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="F11" s="4"/>
-    </row>
-    <row r="12" s="1" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A12" s="3"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="F12" s="4"/>
-    </row>
-    <row r="13" s="1" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A13" s="3"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="F13" s="4"/>
-    </row>
-    <row r="14" s="1" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A14" s="3"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="F14" s="4"/>
-    </row>
-    <row r="15" s="1" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A15" s="3"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="F15" s="4"/>
-    </row>
-    <row r="16" s="1" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A16" s="3"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="F16" s="4"/>
-    </row>
-    <row r="17" s="1" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A17" s="3"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="F17" s="4"/>
-    </row>
-    <row r="18" s="1" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A18" s="3"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="F18" s="4"/>
-    </row>
-    <row r="19" s="1" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A19" s="3"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="F19" s="4"/>
-    </row>
-    <row r="20" s="1" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A20" s="3"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="F20" s="4"/>
-    </row>
-    <row r="21" s="1" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A21" s="3"/>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="F21" s="4"/>
-    </row>
-    <row r="22" s="1" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A22" s="3"/>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="F22" s="4"/>
-    </row>
-    <row r="23" s="1" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A23" s="3"/>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="F23" s="4"/>
-    </row>
-    <row r="24" s="1" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A24" s="3"/>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="F24" s="4"/>
-    </row>
-    <row r="25" s="1" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A25" s="3"/>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="F25" s="4"/>
+    <row r="9" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
+      <c r="A9" s="4"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="F9" s="5"/>
+    </row>
+    <row r="10" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
+      <c r="A10" s="4"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="F10" s="5"/>
+    </row>
+    <row r="11" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
+      <c r="A11" s="4"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="F11" s="5"/>
+    </row>
+    <row r="12" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
+      <c r="A12" s="4"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="F12" s="5"/>
+    </row>
+    <row r="13" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
+      <c r="A13" s="4"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="F13" s="5"/>
+    </row>
+    <row r="14" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
+      <c r="A14" s="4"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="F14" s="5"/>
+    </row>
+    <row r="15" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
+      <c r="A15" s="4"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="F15" s="5"/>
+    </row>
+    <row r="16" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
+      <c r="A16" s="4"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="F16" s="5"/>
+    </row>
+    <row r="17" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
+      <c r="A17" s="4"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="F17" s="5"/>
+    </row>
+    <row r="18" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
+      <c r="A18" s="4"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="F18" s="5"/>
+    </row>
+    <row r="19" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
+      <c r="A19" s="4"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+      <c r="F19" s="5"/>
+    </row>
+    <row r="20" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
+      <c r="A20" s="4"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="F20" s="5"/>
+    </row>
+    <row r="21" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
+      <c r="A21" s="4"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
+      <c r="F21" s="5"/>
+    </row>
+    <row r="22" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
+      <c r="A22" s="4"/>
+      <c r="B22" s="4"/>
+      <c r="C22" s="4"/>
+      <c r="F22" s="5"/>
+    </row>
+    <row r="23" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
+      <c r="A23" s="4"/>
+      <c r="B23" s="4"/>
+      <c r="C23" s="4"/>
+      <c r="F23" s="5"/>
+    </row>
+    <row r="24" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
+      <c r="A24" s="4"/>
+      <c r="B24" s="4"/>
+      <c r="C24" s="4"/>
+      <c r="F24" s="5"/>
+    </row>
+    <row r="25" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
+      <c r="A25" s="4"/>
+      <c r="B25" s="4"/>
+      <c r="C25" s="4"/>
+      <c r="F25" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4969,22 +5003,22 @@
       <selection activeCell="A2" sqref="$A2:$XFD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.81481481481481" defaultRowHeight="14.4" customHeight="1" outlineLevelRow="6" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9.81818181818182" defaultRowHeight="14.4" customHeight="1" outlineLevelRow="6" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="12.6388888888889" style="1" customWidth="1"/>
-    <col min="2" max="2" width="11.2685185185185" style="1" customWidth="1"/>
-    <col min="3" max="3" width="126.185185185185" style="2" customWidth="1"/>
-    <col min="4" max="16384" width="9.81481481481481" style="1"/>
+    <col min="1" max="1" width="12.6363636363636" style="2" customWidth="1"/>
+    <col min="2" max="2" width="11.2727272727273" style="2" customWidth="1"/>
+    <col min="3" max="3" width="126.181818181818" style="3" customWidth="1"/>
+    <col min="4" max="16384" width="9.81818181818182" style="2"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
@@ -4993,63 +5027,63 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3" t="s">
+      <c r="B2" s="4"/>
+      <c r="C2" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="5" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3" t="s">
+      <c r="B3" s="4"/>
+      <c r="C3" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="5" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3" t="s">
+      <c r="B4" s="4"/>
+      <c r="C4" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="5" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="F5" s="4"/>
+      <c r="A5" s="4"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="F5" s="5"/>
     </row>
     <row r="6" s="1" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="F6" s="4"/>
+      <c r="A6" s="4"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="F6" s="5"/>
     </row>
     <row r="7" s="1" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="F7" s="4"/>
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="F7" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5068,22 +5102,22 @@
       <selection activeCell="A5" sqref="$A5:$XFD5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.81481481481481" defaultRowHeight="14.4" customHeight="1" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9.81818181818182" defaultRowHeight="14.4" customHeight="1" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="26.4166666666667" style="1" customWidth="1"/>
-    <col min="2" max="2" width="17.6944444444444" style="1" customWidth="1"/>
-    <col min="3" max="3" width="126.185185185185" style="2" customWidth="1"/>
-    <col min="4" max="16384" width="9.81481481481481" style="1"/>
+    <col min="1" max="1" width="26.4181818181818" style="2" customWidth="1"/>
+    <col min="2" max="2" width="17.6909090909091" style="2" customWidth="1"/>
+    <col min="3" max="3" width="126.181818181818" style="3" customWidth="1"/>
+    <col min="4" max="16384" width="9.81818181818182" style="2"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
@@ -5092,867 +5126,867 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3" t="s">
+      <c r="B2" s="4"/>
+      <c r="C2" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="5" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3" t="s">
+      <c r="B3" s="4"/>
+      <c r="C3" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="5" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3" t="s">
+      <c r="B4" s="4"/>
+      <c r="C4" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="5" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3" t="s">
+      <c r="B5" s="4"/>
+      <c r="C5" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="F5" s="5" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3" t="s">
+      <c r="B6" s="4"/>
+      <c r="C6" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="F6" s="5" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="7" s="1" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3" t="s">
+      <c r="B7" s="4"/>
+      <c r="C7" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="F7" s="5" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="8" s="1" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3" t="s">
+      <c r="B8" s="4"/>
+      <c r="C8" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="F8" s="4" t="s">
+      <c r="F8" s="5" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="9" s="1" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3" t="s">
+      <c r="B9" s="4"/>
+      <c r="C9" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="F9" s="4" t="s">
+      <c r="F9" s="5" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="10" s="1" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3" t="s">
+      <c r="B10" s="4"/>
+      <c r="C10" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="F10" s="4" t="s">
+      <c r="F10" s="5" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="11" s="1" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3" t="s">
+      <c r="B11" s="4"/>
+      <c r="C11" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="F11" s="4" t="s">
+      <c r="F11" s="5" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="12" s="1" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3" t="s">
+      <c r="B12" s="4"/>
+      <c r="C12" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="F12" s="4" t="s">
+      <c r="F12" s="5" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="13" s="1" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3" t="s">
+      <c r="B13" s="4"/>
+      <c r="C13" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="F13" s="4" t="s">
+      <c r="F13" s="5" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="14" s="1" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3" t="s">
+      <c r="B14" s="4"/>
+      <c r="C14" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="F14" s="4" t="s">
+      <c r="F14" s="5" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="15" s="1" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3" t="s">
+      <c r="B15" s="4"/>
+      <c r="C15" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="F15" s="4" t="s">
+      <c r="F15" s="5" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="16" s="1" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A16" s="3" t="s">
+      <c r="A16" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3" t="s">
+      <c r="B16" s="4"/>
+      <c r="C16" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="F16" s="4" t="s">
+      <c r="F16" s="5" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="17" s="1" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A17" s="3" t="s">
+      <c r="A17" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3" t="s">
+      <c r="B17" s="4"/>
+      <c r="C17" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="F17" s="4" t="s">
+      <c r="F17" s="5" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="18" s="1" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A18" s="3" t="s">
+      <c r="A18" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3" t="s">
+      <c r="B18" s="4"/>
+      <c r="C18" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="F18" s="4" t="s">
+      <c r="F18" s="5" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="19" s="1" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A19" s="3" t="s">
+      <c r="A19" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3" t="s">
+      <c r="B19" s="4"/>
+      <c r="C19" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="F19" s="4" t="s">
+      <c r="F19" s="5" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="20" s="1" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A20" s="3" t="s">
+      <c r="A20" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3" t="s">
+      <c r="B20" s="4"/>
+      <c r="C20" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="F20" s="4" t="s">
+      <c r="F20" s="5" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="21" s="1" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A21" s="3" t="s">
+      <c r="A21" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3" t="s">
+      <c r="B21" s="4"/>
+      <c r="C21" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="F21" s="4" t="s">
+      <c r="F21" s="5" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="22" s="1" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A22" s="3" t="s">
+      <c r="A22" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3" t="s">
+      <c r="B22" s="4"/>
+      <c r="C22" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="F22" s="4" t="s">
+      <c r="F22" s="5" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="23" s="1" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A23" s="3" t="s">
+      <c r="A23" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3" t="s">
+      <c r="B23" s="4"/>
+      <c r="C23" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="F23" s="4" t="s">
+      <c r="F23" s="5" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="24" s="1" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A24" s="3" t="s">
+      <c r="A24" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3" t="s">
+      <c r="B24" s="4"/>
+      <c r="C24" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="F24" s="4" t="s">
+      <c r="F24" s="5" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="25" s="1" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A25" s="3" t="s">
+      <c r="A25" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3" t="s">
+      <c r="B25" s="4"/>
+      <c r="C25" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="F25" s="4" t="s">
+      <c r="F25" s="5" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="26" s="1" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A26" s="3" t="s">
+      <c r="A26" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="B26" s="3"/>
-      <c r="C26" s="3" t="s">
+      <c r="B26" s="4"/>
+      <c r="C26" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="F26" s="4" t="s">
+      <c r="F26" s="5" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="27" s="1" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A27" s="3" t="s">
+      <c r="A27" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="B27" s="3"/>
-      <c r="C27" s="3" t="s">
+      <c r="B27" s="4"/>
+      <c r="C27" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="F27" s="4" t="s">
+      <c r="F27" s="5" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="28" s="1" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A28" s="3" t="s">
+      <c r="A28" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="B28" s="3"/>
-      <c r="C28" s="3" t="s">
+      <c r="B28" s="4"/>
+      <c r="C28" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="F28" s="4" t="s">
+      <c r="F28" s="5" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="29" s="1" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A29" s="3" t="s">
+      <c r="A29" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="B29" s="3"/>
-      <c r="C29" s="3" t="s">
+      <c r="B29" s="4"/>
+      <c r="C29" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="F29" s="4" t="s">
+      <c r="F29" s="5" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="30" s="1" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A30" s="3" t="s">
+      <c r="A30" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="B30" s="3"/>
-      <c r="C30" s="3" t="s">
+      <c r="B30" s="4"/>
+      <c r="C30" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="F30" s="4" t="s">
+      <c r="F30" s="5" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="31" s="1" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A31" s="3" t="s">
+      <c r="A31" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="B31" s="3"/>
-      <c r="C31" s="3" t="s">
+      <c r="B31" s="4"/>
+      <c r="C31" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="F31" s="4" t="s">
+      <c r="F31" s="5" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="32" s="1" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A32" s="3" t="s">
+      <c r="A32" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="B32" s="3"/>
-      <c r="C32" s="3" t="s">
+      <c r="B32" s="4"/>
+      <c r="C32" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="F32" s="4" t="s">
+      <c r="F32" s="5" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="33" s="1" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A33" s="3" t="s">
+      <c r="A33" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="B33" s="3"/>
-      <c r="C33" s="3" t="s">
+      <c r="B33" s="4"/>
+      <c r="C33" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="F33" s="4" t="s">
+      <c r="F33" s="5" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="34" s="1" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A34" s="3" t="s">
+      <c r="A34" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="B34" s="3"/>
-      <c r="C34" s="3" t="s">
+      <c r="B34" s="4"/>
+      <c r="C34" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="F34" s="4" t="s">
+      <c r="F34" s="5" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="35" s="1" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A35" s="3" t="s">
+      <c r="A35" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="B35" s="3"/>
-      <c r="C35" s="3" t="s">
+      <c r="B35" s="4"/>
+      <c r="C35" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="F35" s="4" t="s">
+      <c r="F35" s="5" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="36" s="1" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A36" s="3" t="s">
+      <c r="A36" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="B36" s="3"/>
-      <c r="C36" s="3" t="s">
+      <c r="B36" s="4"/>
+      <c r="C36" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="F36" s="4" t="s">
+      <c r="F36" s="5" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="37" s="1" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A37" s="3" t="s">
+      <c r="A37" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="B37" s="3"/>
-      <c r="C37" s="3" t="s">
+      <c r="B37" s="4"/>
+      <c r="C37" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="F37" s="4" t="s">
+      <c r="F37" s="5" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="38" s="1" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A38" s="3" t="s">
+      <c r="A38" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="B38" s="3"/>
-      <c r="C38" s="3" t="s">
+      <c r="B38" s="4"/>
+      <c r="C38" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="F38" s="4" t="s">
+      <c r="F38" s="5" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="39" s="1" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A39" s="3" t="s">
+      <c r="A39" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="B39" s="3"/>
-      <c r="C39" s="3" t="s">
+      <c r="B39" s="4"/>
+      <c r="C39" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="F39" s="4" t="s">
+      <c r="F39" s="5" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="40" s="1" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A40" s="3" t="s">
+      <c r="A40" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="B40" s="3"/>
-      <c r="C40" s="3" t="s">
+      <c r="B40" s="4"/>
+      <c r="C40" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="F40" s="4" t="s">
+      <c r="F40" s="5" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="41" s="1" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A41" s="3" t="s">
+      <c r="A41" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="B41" s="3"/>
-      <c r="C41" s="3" t="s">
+      <c r="B41" s="4"/>
+      <c r="C41" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="F41" s="4" t="s">
+      <c r="F41" s="5" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="42" s="1" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A42" s="3" t="s">
+      <c r="A42" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="B42" s="3"/>
-      <c r="C42" s="3" t="s">
+      <c r="B42" s="4"/>
+      <c r="C42" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="F42" s="4" t="s">
+      <c r="F42" s="5" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="43" s="1" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A43" s="3" t="s">
+      <c r="A43" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="B43" s="3"/>
-      <c r="C43" s="3" t="s">
+      <c r="B43" s="4"/>
+      <c r="C43" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="F43" s="4" t="s">
+      <c r="F43" s="5" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="44" s="1" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A44" s="3" t="s">
+      <c r="A44" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="B44" s="3"/>
-      <c r="C44" s="3" t="s">
+      <c r="B44" s="4"/>
+      <c r="C44" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="F44" s="4" t="s">
+      <c r="F44" s="5" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="45" s="1" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A45" s="3" t="s">
+      <c r="A45" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="B45" s="3"/>
-      <c r="C45" s="3" t="s">
+      <c r="B45" s="4"/>
+      <c r="C45" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="F45" s="4" t="s">
+      <c r="F45" s="5" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="46" s="1" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A46" s="3" t="s">
+      <c r="A46" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="B46" s="3"/>
-      <c r="C46" s="3" t="s">
+      <c r="B46" s="4"/>
+      <c r="C46" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="F46" s="4" t="s">
+      <c r="F46" s="5" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="47" s="1" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A47" s="3" t="s">
+      <c r="A47" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="B47" s="3"/>
-      <c r="C47" s="3" t="s">
+      <c r="B47" s="4"/>
+      <c r="C47" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="F47" s="4" t="s">
+      <c r="F47" s="5" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="48" s="1" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A48" s="3" t="s">
+      <c r="A48" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="B48" s="3"/>
-      <c r="C48" s="3" t="s">
+      <c r="B48" s="4"/>
+      <c r="C48" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="F48" s="4" t="s">
+      <c r="F48" s="5" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="49" s="1" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A49" s="3" t="s">
+      <c r="A49" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="B49" s="3"/>
-      <c r="C49" s="3" t="s">
+      <c r="B49" s="4"/>
+      <c r="C49" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="F49" s="4" t="s">
+      <c r="F49" s="5" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="50" s="1" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A50" s="3" t="s">
+      <c r="A50" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="B50" s="3"/>
-      <c r="C50" s="3" t="s">
+      <c r="B50" s="4"/>
+      <c r="C50" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="F50" s="4" t="s">
+      <c r="F50" s="5" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="51" s="1" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A51" s="3" t="s">
+      <c r="A51" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="B51" s="3"/>
-      <c r="C51" s="3" t="s">
+      <c r="B51" s="4"/>
+      <c r="C51" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="F51" s="4" t="s">
+      <c r="F51" s="5" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="52" s="1" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A52" s="3" t="s">
+      <c r="A52" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="B52" s="3"/>
-      <c r="C52" s="3" t="s">
+      <c r="B52" s="4"/>
+      <c r="C52" s="4" t="s">
         <v>168</v>
       </c>
-      <c r="F52" s="4" t="s">
+      <c r="F52" s="5" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="53" s="1" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A53" s="3" t="s">
+      <c r="A53" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="B53" s="3"/>
-      <c r="C53" s="3" t="s">
+      <c r="B53" s="4"/>
+      <c r="C53" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="F53" s="4" t="s">
+      <c r="F53" s="5" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="54" s="1" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A54" s="3" t="s">
+      <c r="A54" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="B54" s="3"/>
-      <c r="C54" s="3" t="s">
+      <c r="B54" s="4"/>
+      <c r="C54" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="F54" s="4" t="s">
+      <c r="F54" s="5" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="55" s="1" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A55" s="3" t="s">
+      <c r="A55" s="4" t="s">
         <v>173</v>
       </c>
-      <c r="B55" s="3"/>
-      <c r="C55" s="3" t="s">
+      <c r="B55" s="4"/>
+      <c r="C55" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="F55" s="4" t="s">
+      <c r="F55" s="5" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="56" s="1" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A56" s="3" t="s">
+      <c r="A56" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="B56" s="3"/>
-      <c r="C56" s="3" t="s">
+      <c r="B56" s="4"/>
+      <c r="C56" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="F56" s="4" t="s">
+      <c r="F56" s="5" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="57" s="1" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A57" s="3" t="s">
+      <c r="A57" s="4" t="s">
         <v>177</v>
       </c>
-      <c r="B57" s="3"/>
-      <c r="C57" s="3" t="s">
+      <c r="B57" s="4"/>
+      <c r="C57" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="F57" s="4" t="s">
+      <c r="F57" s="5" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="58" s="1" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A58" s="3" t="s">
+      <c r="A58" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="B58" s="3"/>
-      <c r="C58" s="3" t="s">
+      <c r="B58" s="4"/>
+      <c r="C58" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="F58" s="4" t="s">
+      <c r="F58" s="5" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="59" s="1" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A59" s="3" t="s">
+      <c r="A59" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="B59" s="3"/>
-      <c r="C59" s="3" t="s">
+      <c r="B59" s="4"/>
+      <c r="C59" s="4" t="s">
         <v>182</v>
       </c>
-      <c r="F59" s="4" t="s">
+      <c r="F59" s="5" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="60" s="1" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A60" s="3" t="s">
+      <c r="A60" s="4" t="s">
         <v>183</v>
       </c>
-      <c r="B60" s="3"/>
-      <c r="C60" s="3" t="s">
+      <c r="B60" s="4"/>
+      <c r="C60" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="F60" s="4" t="s">
+      <c r="F60" s="5" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="61" s="1" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A61" s="3" t="s">
+      <c r="A61" s="4" t="s">
         <v>185</v>
       </c>
-      <c r="B61" s="3"/>
-      <c r="C61" s="3" t="s">
+      <c r="B61" s="4"/>
+      <c r="C61" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="F61" s="4" t="s">
+      <c r="F61" s="5" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="62" s="1" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A62" s="3" t="s">
+      <c r="A62" s="4" t="s">
         <v>187</v>
       </c>
-      <c r="B62" s="3"/>
-      <c r="C62" s="3" t="s">
+      <c r="B62" s="4"/>
+      <c r="C62" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="F62" s="4" t="s">
+      <c r="F62" s="5" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="63" s="1" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A63" s="3" t="s">
+      <c r="A63" s="4" t="s">
         <v>189</v>
       </c>
-      <c r="B63" s="3"/>
-      <c r="C63" s="3" t="s">
+      <c r="B63" s="4"/>
+      <c r="C63" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="F63" s="4" t="s">
+      <c r="F63" s="5" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="64" s="1" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A64" s="3" t="s">
+      <c r="A64" s="4" t="s">
         <v>191</v>
       </c>
-      <c r="B64" s="3"/>
-      <c r="C64" s="3" t="s">
+      <c r="B64" s="4"/>
+      <c r="C64" s="4" t="s">
         <v>192</v>
       </c>
-      <c r="F64" s="4" t="s">
+      <c r="F64" s="5" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="65" s="1" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A65" s="3" t="s">
+      <c r="A65" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="B65" s="3"/>
-      <c r="C65" s="3" t="s">
+      <c r="B65" s="4"/>
+      <c r="C65" s="4" t="s">
         <v>194</v>
       </c>
-      <c r="F65" s="4" t="s">
+      <c r="F65" s="5" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="66" s="1" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A66" s="3" t="s">
+      <c r="A66" s="4" t="s">
         <v>195</v>
       </c>
-      <c r="B66" s="3"/>
-      <c r="C66" s="3" t="s">
+      <c r="B66" s="4"/>
+      <c r="C66" s="4" t="s">
         <v>196</v>
       </c>
-      <c r="F66" s="4" t="s">
+      <c r="F66" s="5" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="67" s="1" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A67" s="3" t="s">
+      <c r="A67" s="4" t="s">
         <v>197</v>
       </c>
-      <c r="B67" s="3"/>
-      <c r="C67" s="3" t="s">
+      <c r="B67" s="4"/>
+      <c r="C67" s="4" t="s">
         <v>198</v>
       </c>
-      <c r="F67" s="4" t="s">
+      <c r="F67" s="5" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="68" s="1" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A68" s="3" t="s">
+      <c r="A68" s="4" t="s">
         <v>199</v>
       </c>
-      <c r="B68" s="3"/>
-      <c r="C68" s="3" t="s">
+      <c r="B68" s="4"/>
+      <c r="C68" s="4" t="s">
         <v>200</v>
       </c>
-      <c r="F68" s="4" t="s">
+      <c r="F68" s="5" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="69" s="1" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A69" s="3" t="s">
+      <c r="A69" s="4" t="s">
         <v>201</v>
       </c>
-      <c r="B69" s="3"/>
-      <c r="C69" s="3" t="s">
+      <c r="B69" s="4"/>
+      <c r="C69" s="4" t="s">
         <v>202</v>
       </c>
-      <c r="F69" s="4" t="s">
+      <c r="F69" s="5" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="70" s="1" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A70" s="3" t="s">
+      <c r="A70" s="4" t="s">
         <v>203</v>
       </c>
-      <c r="B70" s="3"/>
-      <c r="C70" s="3" t="s">
+      <c r="B70" s="4"/>
+      <c r="C70" s="4" t="s">
         <v>204</v>
       </c>
-      <c r="F70" s="4" t="s">
+      <c r="F70" s="5" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="71" s="1" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A71" s="3" t="s">
+      <c r="A71" s="4" t="s">
         <v>205</v>
       </c>
-      <c r="B71" s="3"/>
-      <c r="C71" s="3" t="s">
+      <c r="B71" s="4"/>
+      <c r="C71" s="4" t="s">
         <v>206</v>
       </c>
-      <c r="F71" s="4" t="s">
+      <c r="F71" s="5" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="72" s="1" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A72" s="3"/>
-      <c r="B72" s="3"/>
-      <c r="C72" s="3"/>
-      <c r="F72" s="4"/>
+      <c r="A72" s="4"/>
+      <c r="B72" s="4"/>
+      <c r="C72" s="4"/>
+      <c r="F72" s="5"/>
     </row>
     <row r="73" s="1" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A73" s="3"/>
-      <c r="B73" s="3"/>
-      <c r="C73" s="3"/>
-      <c r="F73" s="4"/>
+      <c r="A73" s="4"/>
+      <c r="B73" s="4"/>
+      <c r="C73" s="4"/>
+      <c r="F73" s="5"/>
     </row>
     <row r="74" s="1" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A74" s="3"/>
-      <c r="B74" s="3"/>
-      <c r="C74" s="3"/>
-      <c r="F74" s="4"/>
+      <c r="A74" s="4"/>
+      <c r="B74" s="4"/>
+      <c r="C74" s="4"/>
+      <c r="F74" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5971,22 +6005,22 @@
       <selection activeCell="A6" sqref="$A6:$XFD6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.81481481481481" defaultRowHeight="14.4" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9.81818181818182" defaultRowHeight="14" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="11.1851851851852" style="1" customWidth="1"/>
-    <col min="2" max="2" width="10.6388888888889" style="1" customWidth="1"/>
-    <col min="3" max="3" width="126.185185185185" style="2" customWidth="1"/>
-    <col min="4" max="16384" width="9.81481481481481" style="1"/>
+    <col min="1" max="1" width="11.1818181818182" style="2" customWidth="1"/>
+    <col min="2" max="2" width="10.6363636363636" style="2" customWidth="1"/>
+    <col min="3" max="3" width="126.181818181818" style="3" customWidth="1"/>
+    <col min="4" max="16384" width="9.81818181818182" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A1" s="3" t="s">
+    <row r="1" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
@@ -5995,141 +6029,141 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A2" s="3" t="s">
+    <row r="2" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
+      <c r="A2" s="4" t="s">
         <v>207</v>
       </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3" t="s">
+      <c r="B2" s="4"/>
+      <c r="C2" s="4" t="s">
         <v>208</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="5" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A3" s="3" t="s">
+    <row r="3" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
+      <c r="A3" s="4" t="s">
         <v>210</v>
       </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3" t="s">
+      <c r="B3" s="4"/>
+      <c r="C3" s="4" t="s">
         <v>211</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="5" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A4" s="3" t="s">
+    <row r="4" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
+      <c r="A4" s="4" t="s">
         <v>212</v>
       </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3" t="s">
+      <c r="B4" s="4"/>
+      <c r="C4" s="4" t="s">
         <v>213</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="5" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="5" s="1" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A5" s="3" t="s">
+    <row r="5" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
+      <c r="A5" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3" t="s">
+      <c r="B5" s="4"/>
+      <c r="C5" s="4" t="s">
         <v>215</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="F5" s="5" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="6" s="1" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A6" s="3" t="s">
+    <row r="6" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
+      <c r="A6" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3" t="s">
+      <c r="B6" s="4"/>
+      <c r="C6" s="4" t="s">
         <v>217</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="F6" s="5" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="7" s="1" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A7" s="3" t="s">
+    <row r="7" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
+      <c r="A7" s="4" t="s">
         <v>218</v>
       </c>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3" t="s">
+      <c r="B7" s="4"/>
+      <c r="C7" s="4" t="s">
         <v>219</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="F7" s="5" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="8" s="1" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A8" s="3" t="s">
+    <row r="8" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
+      <c r="A8" s="4" t="s">
         <v>220</v>
       </c>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3" t="s">
+      <c r="B8" s="4"/>
+      <c r="C8" s="4" t="s">
         <v>221</v>
       </c>
-      <c r="F8" s="4" t="s">
+      <c r="F8" s="5" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="9" s="1" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A9" s="3" t="s">
+    <row r="9" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
+      <c r="A9" s="4" t="s">
         <v>222</v>
       </c>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3" t="s">
+      <c r="B9" s="4"/>
+      <c r="C9" s="4" t="s">
         <v>223</v>
       </c>
-      <c r="F9" s="4" t="s">
+      <c r="F9" s="5" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="10" s="1" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="F10" s="4"/>
-    </row>
-    <row r="11" s="1" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A11" s="3"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="F11" s="4"/>
-    </row>
-    <row r="12" s="1" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A12" s="3"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="F12" s="4"/>
-    </row>
-    <row r="13" s="1" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A13" s="3"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="F13" s="4"/>
-    </row>
-    <row r="14" s="1" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A14" s="3"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="F14" s="4"/>
-    </row>
-    <row r="15" s="1" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A15" s="3"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="F15" s="4"/>
+    <row r="10" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
+      <c r="A10" s="4"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="F10" s="5"/>
+    </row>
+    <row r="11" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
+      <c r="A11" s="4"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="F11" s="5"/>
+    </row>
+    <row r="12" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
+      <c r="A12" s="4"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="F12" s="5"/>
+    </row>
+    <row r="13" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
+      <c r="A13" s="4"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="F13" s="5"/>
+    </row>
+    <row r="14" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
+      <c r="A14" s="4"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="F14" s="5"/>
+    </row>
+    <row r="15" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
+      <c r="A15" s="4"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="F15" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6144,26 +6178,26 @@
   <sheetPr/>
   <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="$A1:$XFD20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.81481481481481" defaultRowHeight="13.8" customHeight="1" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9.81818181818182" defaultRowHeight="13.8" customHeight="1" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="15.8148148148148" style="1" customWidth="1"/>
-    <col min="2" max="2" width="9.81481481481481" style="1"/>
-    <col min="3" max="3" width="101.361111111111" style="2" customWidth="1"/>
-    <col min="4" max="16384" width="9.81481481481481" style="1"/>
+    <col min="1" max="1" width="15.8181818181818" style="2" customWidth="1"/>
+    <col min="2" max="2" width="9.81818181818182" style="2"/>
+    <col min="3" max="3" width="101.363636363636" style="3" customWidth="1"/>
+    <col min="4" max="16384" width="9.81818181818182" style="2"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
@@ -6172,231 +6206,231 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="4" t="s">
         <v>224</v>
       </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3" t="s">
+      <c r="B2" s="4"/>
+      <c r="C2" s="4" t="s">
         <v>225</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="5" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="4" t="s">
         <v>226</v>
       </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3" t="s">
+      <c r="B3" s="4"/>
+      <c r="C3" s="4" t="s">
         <v>227</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="5" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="4" t="s">
         <v>228</v>
       </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3" t="s">
+      <c r="B4" s="4"/>
+      <c r="C4" s="4" t="s">
         <v>229</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="5" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="4" t="s">
         <v>230</v>
       </c>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3" t="s">
+      <c r="B5" s="4"/>
+      <c r="C5" s="4" t="s">
         <v>231</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="F5" s="5" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="4" t="s">
         <v>232</v>
       </c>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3" t="s">
+      <c r="B6" s="4"/>
+      <c r="C6" s="4" t="s">
         <v>233</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="F6" s="5" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="7" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="4" t="s">
         <v>234</v>
       </c>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3" t="s">
+      <c r="B7" s="4"/>
+      <c r="C7" s="4" t="s">
         <v>235</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="F7" s="5" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="8" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="4" t="s">
         <v>236</v>
       </c>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3" t="s">
+      <c r="B8" s="4"/>
+      <c r="C8" s="4" t="s">
         <v>237</v>
       </c>
-      <c r="F8" s="4" t="s">
+      <c r="F8" s="5" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="9" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="4" t="s">
         <v>238</v>
       </c>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3" t="s">
+      <c r="B9" s="4"/>
+      <c r="C9" s="4" t="s">
         <v>239</v>
       </c>
-      <c r="F9" s="4" t="s">
+      <c r="F9" s="5" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="10" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="4" t="s">
         <v>240</v>
       </c>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3" t="s">
+      <c r="B10" s="4"/>
+      <c r="C10" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="F10" s="4" t="s">
+      <c r="F10" s="5" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="11" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="4" t="s">
         <v>242</v>
       </c>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3" t="s">
+      <c r="B11" s="4"/>
+      <c r="C11" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="F11" s="4" t="s">
+      <c r="F11" s="5" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="12" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="4" t="s">
         <v>244</v>
       </c>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3" t="s">
+      <c r="B12" s="4"/>
+      <c r="C12" s="4" t="s">
         <v>245</v>
       </c>
-      <c r="F12" s="4" t="s">
+      <c r="F12" s="5" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="13" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="4" t="s">
         <v>246</v>
       </c>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3" t="s">
+      <c r="B13" s="4"/>
+      <c r="C13" s="4" t="s">
         <v>247</v>
       </c>
-      <c r="F13" s="4" t="s">
+      <c r="F13" s="5" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="14" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="4" t="s">
         <v>248</v>
       </c>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3" t="s">
+      <c r="B14" s="4"/>
+      <c r="C14" s="4" t="s">
         <v>249</v>
       </c>
-      <c r="F14" s="4" t="s">
+      <c r="F14" s="5" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="15" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="4" t="s">
         <v>250</v>
       </c>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3" t="s">
+      <c r="B15" s="4"/>
+      <c r="C15" s="4" t="s">
         <v>251</v>
       </c>
-      <c r="F15" s="4" t="s">
+      <c r="F15" s="5" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="16" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
-      <c r="A16" s="3" t="s">
+      <c r="A16" s="4" t="s">
         <v>252</v>
       </c>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3" t="s">
+      <c r="B16" s="4"/>
+      <c r="C16" s="4" t="s">
         <v>253</v>
       </c>
-      <c r="F16" s="4" t="s">
+      <c r="F16" s="5" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="17" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
-      <c r="A17" s="3" t="s">
+      <c r="A17" s="4" t="s">
         <v>254</v>
       </c>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3" t="s">
+      <c r="B17" s="4"/>
+      <c r="C17" s="4" t="s">
         <v>255</v>
       </c>
-      <c r="F17" s="4" t="s">
+      <c r="F17" s="5" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="18" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
-      <c r="A18" s="3" t="s">
+      <c r="A18" s="4" t="s">
         <v>256</v>
       </c>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3" t="s">
+      <c r="B18" s="4"/>
+      <c r="C18" s="4" t="s">
         <v>257</v>
       </c>
-      <c r="F18" s="4" t="s">
+      <c r="F18" s="5" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="19" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
-      <c r="A19" s="3" t="s">
+      <c r="A19" s="4" t="s">
         <v>258</v>
       </c>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3" t="s">
+      <c r="B19" s="4"/>
+      <c r="C19" s="4" t="s">
         <v>259</v>
       </c>
-      <c r="F19" s="4" t="s">
+      <c r="F19" s="5" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="20" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
-      <c r="A20" s="3"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="F20" s="4"/>
+      <c r="A20" s="4"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="F20" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/builtins/data/helpdoc/DND/15_菲资本的巨龙宝库FTD.xlsx
+++ b/builtins/data/helpdoc/DND/15_菲资本的巨龙宝库FTD.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18530" windowHeight="7270" firstSheet="2" activeTab="6"/>
+    <workbookView windowWidth="18530" windowHeight="7270" firstSheet="2" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="FTD职业" sheetId="6" r:id="rId1"/>
@@ -3452,7 +3452,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3602,13 +3602,6 @@
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -4067,11 +4060,8 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -4440,18 +4430,18 @@
   <cols>
     <col min="1" max="1" width="18.9090909090909" customWidth="1"/>
     <col min="2" max="2" width="17.2727272727273" customWidth="1"/>
-    <col min="3" max="3" width="88.0909090909091" style="7" customWidth="1"/>
+    <col min="3" max="3" width="88.0909090909091" style="6" customWidth="1"/>
     <col min="5" max="5" width="7.89090909090909" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
@@ -4460,179 +4450,155 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="4" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4" t="s">
+      <c r="B3" s="3"/>
+      <c r="C3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="4" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4" t="s">
+      <c r="B4" s="3"/>
+      <c r="C4" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="5" t="s">
+      <c r="F4" s="4" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4" t="s">
+      <c r="B5" s="3"/>
+      <c r="C5" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="5" t="s">
+      <c r="F5" s="4" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4" t="s">
+      <c r="B6" s="3"/>
+      <c r="C6" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="5" t="s">
+      <c r="F6" s="4" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="7" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4" t="s">
+      <c r="B7" s="3"/>
+      <c r="C7" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="5" t="s">
+      <c r="F7" s="4" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="8" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="5" t="s">
+      <c r="F8" s="4" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="9" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4" t="s">
+      <c r="B9" s="3"/>
+      <c r="C9" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="5" t="s">
+      <c r="F9" s="4" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="10" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4" t="s">
+      <c r="B10" s="3"/>
+      <c r="C10" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="5" t="s">
+      <c r="F10" s="4" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="11" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4" t="s">
+      <c r="B11" s="3"/>
+      <c r="C11" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="5" t="s">
+      <c r="F11" s="4" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="12" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4" t="s">
+      <c r="B12" s="3"/>
+      <c r="C12" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="5" t="s">
+      <c r="F12" s="4" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="13" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
-      <c r="A13" s="4" t="s">
+      <c r="A13" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4" t="s">
+      <c r="B13" s="3"/>
+      <c r="C13" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="5" t="s">
+      <c r="F13" s="4" t="s">
         <v>23</v>
       </c>
     </row>
@@ -4654,20 +4620,20 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.81818181818182" defaultRowHeight="14" outlineLevelRow="5" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="18.5454545454545" style="2" customWidth="1"/>
-    <col min="2" max="2" width="9.45454545454546" style="2" customWidth="1"/>
-    <col min="3" max="3" width="126.227272727273" style="3" customWidth="1"/>
-    <col min="4" max="16384" width="9.81818181818182" style="2"/>
+    <col min="1" max="1" width="18.5454545454545" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.45454545454546" style="1" customWidth="1"/>
+    <col min="3" max="3" width="126.227272727273" style="2" customWidth="1"/>
+    <col min="4" max="16384" width="9.81818181818182" style="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
@@ -4676,57 +4642,57 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4" t="s">
+      <c r="B2" s="3"/>
+      <c r="C2" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="4" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4" t="s">
+      <c r="B3" s="3"/>
+      <c r="C3" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="4" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4" t="s">
+      <c r="B4" s="3"/>
+      <c r="C4" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F4" s="4" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="F5" s="5"/>
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="F5" s="4"/>
     </row>
     <row r="6" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="F6" s="5"/>
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="F6" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4741,28 +4707,28 @@
   <sheetPr/>
   <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="$A4:$XFD4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="19.5545454545455" style="6" customWidth="1"/>
-    <col min="2" max="2" width="21.3363636363636" style="6" customWidth="1"/>
-    <col min="3" max="3" width="99.7818181818182" style="6" customWidth="1"/>
-    <col min="4" max="4" width="27.4454545454545" style="6" customWidth="1"/>
-    <col min="5" max="5" width="17.8909090909091" style="6" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="6"/>
+    <col min="1" max="1" width="19.5545454545455" style="5" customWidth="1"/>
+    <col min="2" max="2" width="21.3363636363636" style="5" customWidth="1"/>
+    <col min="3" max="3" width="99.7818181818182" style="5" customWidth="1"/>
+    <col min="4" max="4" width="27.4454545454545" style="5" customWidth="1"/>
+    <col min="5" max="5" width="17.8909090909091" style="5" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
@@ -4771,220 +4737,220 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4" t="s">
+      <c r="B2" s="3"/>
+      <c r="C2" s="3" t="s">
         <v>42</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="4" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4" t="s">
+      <c r="B3" s="3"/>
+      <c r="C3" s="3" t="s">
         <v>46</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="4" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="3" t="s">
         <v>49</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F4" s="4" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4" t="s">
+      <c r="B5" s="3"/>
+      <c r="C5" s="3" t="s">
         <v>51</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="F5" s="4" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4" t="s">
+      <c r="B6" s="3"/>
+      <c r="C6" s="3" t="s">
         <v>53</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="F6" s="5" t="s">
+      <c r="F6" s="4" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="7" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4" t="s">
+      <c r="B7" s="3"/>
+      <c r="C7" s="3" t="s">
         <v>55</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="F7" s="5" t="s">
+      <c r="F7" s="4" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="8" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="3" t="s">
         <v>58</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="F8" s="5" t="s">
+      <c r="F8" s="4" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="9" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="F9" s="5"/>
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="F9" s="4"/>
     </row>
     <row r="10" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="F10" s="5"/>
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="F10" s="4"/>
     </row>
     <row r="11" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="F11" s="5"/>
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="F11" s="4"/>
     </row>
     <row r="12" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="F12" s="5"/>
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="F12" s="4"/>
     </row>
     <row r="13" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
-      <c r="A13" s="4"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="F13" s="5"/>
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="F13" s="4"/>
     </row>
     <row r="14" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
-      <c r="A14" s="4"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="F14" s="5"/>
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="F14" s="4"/>
     </row>
     <row r="15" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
-      <c r="A15" s="4"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-      <c r="F15" s="5"/>
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="F15" s="4"/>
     </row>
     <row r="16" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-      <c r="F16" s="5"/>
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="F16" s="4"/>
     </row>
     <row r="17" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
-      <c r="A17" s="4"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-      <c r="F17" s="5"/>
+      <c r="A17" s="3"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="F17" s="4"/>
     </row>
     <row r="18" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
-      <c r="A18" s="4"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-      <c r="F18" s="5"/>
+      <c r="A18" s="3"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="F18" s="4"/>
     </row>
     <row r="19" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
-      <c r="A19" s="4"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-      <c r="F19" s="5"/>
+      <c r="A19" s="3"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="F19" s="4"/>
     </row>
     <row r="20" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
-      <c r="A20" s="4"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
-      <c r="F20" s="5"/>
+      <c r="A20" s="3"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="F20" s="4"/>
     </row>
     <row r="21" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
-      <c r="A21" s="4"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
-      <c r="F21" s="5"/>
+      <c r="A21" s="3"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="F21" s="4"/>
     </row>
     <row r="22" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
-      <c r="A22" s="4"/>
-      <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
-      <c r="F22" s="5"/>
+      <c r="A22" s="3"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="F22" s="4"/>
     </row>
     <row r="23" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
-      <c r="A23" s="4"/>
-      <c r="B23" s="4"/>
-      <c r="C23" s="4"/>
-      <c r="F23" s="5"/>
+      <c r="A23" s="3"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="F23" s="4"/>
     </row>
     <row r="24" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
-      <c r="A24" s="4"/>
-      <c r="B24" s="4"/>
-      <c r="C24" s="4"/>
-      <c r="F24" s="5"/>
+      <c r="A24" s="3"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="F24" s="4"/>
     </row>
     <row r="25" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
-      <c r="A25" s="4"/>
-      <c r="B25" s="4"/>
-      <c r="C25" s="4"/>
-      <c r="F25" s="5"/>
+      <c r="A25" s="3"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="F25" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -5005,20 +4971,20 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.81818181818182" defaultRowHeight="14.4" customHeight="1" outlineLevelRow="6" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="12.6363636363636" style="2" customWidth="1"/>
-    <col min="2" max="2" width="11.2727272727273" style="2" customWidth="1"/>
-    <col min="3" max="3" width="126.181818181818" style="3" customWidth="1"/>
-    <col min="4" max="16384" width="9.81818181818182" style="2"/>
+    <col min="1" max="1" width="12.6363636363636" style="1" customWidth="1"/>
+    <col min="2" max="2" width="11.2727272727273" style="1" customWidth="1"/>
+    <col min="3" max="3" width="126.181818181818" style="2" customWidth="1"/>
+    <col min="4" max="16384" width="9.81818181818182" style="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
@@ -5027,63 +4993,63 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4" t="s">
+      <c r="B2" s="3"/>
+      <c r="C2" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="4" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4" t="s">
+      <c r="B3" s="3"/>
+      <c r="C3" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="4" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4" t="s">
+      <c r="B4" s="3"/>
+      <c r="C4" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F4" s="4" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="F5" s="5"/>
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="F5" s="4"/>
     </row>
     <row r="6" s="1" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="F6" s="5"/>
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="F6" s="4"/>
     </row>
     <row r="7" s="1" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="F7" s="5"/>
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="F7" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5104,20 +5070,20 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.81818181818182" defaultRowHeight="14.4" customHeight="1" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="26.4181818181818" style="2" customWidth="1"/>
-    <col min="2" max="2" width="17.6909090909091" style="2" customWidth="1"/>
-    <col min="3" max="3" width="126.181818181818" style="3" customWidth="1"/>
-    <col min="4" max="16384" width="9.81818181818182" style="2"/>
+    <col min="1" max="1" width="26.4181818181818" style="1" customWidth="1"/>
+    <col min="2" max="2" width="17.6909090909091" style="1" customWidth="1"/>
+    <col min="3" max="3" width="126.181818181818" style="2" customWidth="1"/>
+    <col min="4" max="16384" width="9.81818181818182" style="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
@@ -5126,867 +5092,867 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4" t="s">
+      <c r="B2" s="3"/>
+      <c r="C2" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="4" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4" t="s">
+      <c r="B3" s="3"/>
+      <c r="C3" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="4" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4" t="s">
+      <c r="B4" s="3"/>
+      <c r="C4" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F4" s="4" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4" t="s">
+      <c r="B5" s="3"/>
+      <c r="C5" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="F5" s="4" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4" t="s">
+      <c r="B6" s="3"/>
+      <c r="C6" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="F6" s="5" t="s">
+      <c r="F6" s="4" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="7" s="1" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4" t="s">
+      <c r="B7" s="3"/>
+      <c r="C7" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="F7" s="5" t="s">
+      <c r="F7" s="4" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="8" s="1" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4" t="s">
+      <c r="B8" s="3"/>
+      <c r="C8" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="F8" s="5" t="s">
+      <c r="F8" s="4" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="9" s="1" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4" t="s">
+      <c r="B9" s="3"/>
+      <c r="C9" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="F9" s="5" t="s">
+      <c r="F9" s="4" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="10" s="1" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4" t="s">
+      <c r="B10" s="3"/>
+      <c r="C10" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="F10" s="5" t="s">
+      <c r="F10" s="4" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="11" s="1" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4" t="s">
+      <c r="B11" s="3"/>
+      <c r="C11" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="F11" s="5" t="s">
+      <c r="F11" s="4" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="12" s="1" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4" t="s">
+      <c r="B12" s="3"/>
+      <c r="C12" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="F12" s="5" t="s">
+      <c r="F12" s="4" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="13" s="1" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A13" s="4" t="s">
+      <c r="A13" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4" t="s">
+      <c r="B13" s="3"/>
+      <c r="C13" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="F13" s="5" t="s">
+      <c r="F13" s="4" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="14" s="1" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A14" s="4" t="s">
+      <c r="A14" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4" t="s">
+      <c r="B14" s="3"/>
+      <c r="C14" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="F14" s="5" t="s">
+      <c r="F14" s="4" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="15" s="1" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A15" s="4" t="s">
+      <c r="A15" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4" t="s">
+      <c r="B15" s="3"/>
+      <c r="C15" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="F15" s="5" t="s">
+      <c r="F15" s="4" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="16" s="1" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A16" s="4" t="s">
+      <c r="A16" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4" t="s">
+      <c r="B16" s="3"/>
+      <c r="C16" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="F16" s="5" t="s">
+      <c r="F16" s="4" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="17" s="1" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A17" s="4" t="s">
+      <c r="A17" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4" t="s">
+      <c r="B17" s="3"/>
+      <c r="C17" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="F17" s="5" t="s">
+      <c r="F17" s="4" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="18" s="1" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A18" s="4" t="s">
+      <c r="A18" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="B18" s="4"/>
-      <c r="C18" s="4" t="s">
+      <c r="B18" s="3"/>
+      <c r="C18" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="F18" s="5" t="s">
+      <c r="F18" s="4" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="19" s="1" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A19" s="4" t="s">
+      <c r="A19" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4" t="s">
+      <c r="B19" s="3"/>
+      <c r="C19" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="F19" s="5" t="s">
+      <c r="F19" s="4" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="20" s="1" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A20" s="4" t="s">
+      <c r="A20" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="B20" s="4"/>
-      <c r="C20" s="4" t="s">
+      <c r="B20" s="3"/>
+      <c r="C20" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="F20" s="5" t="s">
+      <c r="F20" s="4" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="21" s="1" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A21" s="4" t="s">
+      <c r="A21" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="B21" s="4"/>
-      <c r="C21" s="4" t="s">
+      <c r="B21" s="3"/>
+      <c r="C21" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="F21" s="5" t="s">
+      <c r="F21" s="4" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="22" s="1" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A22" s="4" t="s">
+      <c r="A22" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="B22" s="4"/>
-      <c r="C22" s="4" t="s">
+      <c r="B22" s="3"/>
+      <c r="C22" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="F22" s="5" t="s">
+      <c r="F22" s="4" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="23" s="1" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A23" s="4" t="s">
+      <c r="A23" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="B23" s="4"/>
-      <c r="C23" s="4" t="s">
+      <c r="B23" s="3"/>
+      <c r="C23" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="F23" s="5" t="s">
+      <c r="F23" s="4" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="24" s="1" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A24" s="4" t="s">
+      <c r="A24" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="B24" s="4"/>
-      <c r="C24" s="4" t="s">
+      <c r="B24" s="3"/>
+      <c r="C24" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="F24" s="5" t="s">
+      <c r="F24" s="4" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="25" s="1" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A25" s="4" t="s">
+      <c r="A25" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="B25" s="4"/>
-      <c r="C25" s="4" t="s">
+      <c r="B25" s="3"/>
+      <c r="C25" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="F25" s="5" t="s">
+      <c r="F25" s="4" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="26" s="1" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A26" s="4" t="s">
+      <c r="A26" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="B26" s="4"/>
-      <c r="C26" s="4" t="s">
+      <c r="B26" s="3"/>
+      <c r="C26" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="F26" s="5" t="s">
+      <c r="F26" s="4" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="27" s="1" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A27" s="4" t="s">
+      <c r="A27" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="B27" s="4"/>
-      <c r="C27" s="4" t="s">
+      <c r="B27" s="3"/>
+      <c r="C27" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="F27" s="5" t="s">
+      <c r="F27" s="4" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="28" s="1" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A28" s="4" t="s">
+      <c r="A28" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="B28" s="4"/>
-      <c r="C28" s="4" t="s">
+      <c r="B28" s="3"/>
+      <c r="C28" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="F28" s="5" t="s">
+      <c r="F28" s="4" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="29" s="1" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A29" s="4" t="s">
+      <c r="A29" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="B29" s="4"/>
-      <c r="C29" s="4" t="s">
+      <c r="B29" s="3"/>
+      <c r="C29" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="F29" s="5" t="s">
+      <c r="F29" s="4" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="30" s="1" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A30" s="4" t="s">
+      <c r="A30" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="B30" s="4"/>
-      <c r="C30" s="4" t="s">
+      <c r="B30" s="3"/>
+      <c r="C30" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="F30" s="5" t="s">
+      <c r="F30" s="4" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="31" s="1" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A31" s="4" t="s">
+      <c r="A31" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="B31" s="4"/>
-      <c r="C31" s="4" t="s">
+      <c r="B31" s="3"/>
+      <c r="C31" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="F31" s="5" t="s">
+      <c r="F31" s="4" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="32" s="1" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A32" s="4" t="s">
+      <c r="A32" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="B32" s="4"/>
-      <c r="C32" s="4" t="s">
+      <c r="B32" s="3"/>
+      <c r="C32" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="F32" s="5" t="s">
+      <c r="F32" s="4" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="33" s="1" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A33" s="4" t="s">
+      <c r="A33" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="B33" s="4"/>
-      <c r="C33" s="4" t="s">
+      <c r="B33" s="3"/>
+      <c r="C33" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="F33" s="5" t="s">
+      <c r="F33" s="4" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="34" s="1" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A34" s="4" t="s">
+      <c r="A34" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="B34" s="4"/>
-      <c r="C34" s="4" t="s">
+      <c r="B34" s="3"/>
+      <c r="C34" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="F34" s="5" t="s">
+      <c r="F34" s="4" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="35" s="1" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A35" s="4" t="s">
+      <c r="A35" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="B35" s="4"/>
-      <c r="C35" s="4" t="s">
+      <c r="B35" s="3"/>
+      <c r="C35" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="F35" s="5" t="s">
+      <c r="F35" s="4" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="36" s="1" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A36" s="4" t="s">
+      <c r="A36" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="B36" s="4"/>
-      <c r="C36" s="4" t="s">
+      <c r="B36" s="3"/>
+      <c r="C36" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="F36" s="5" t="s">
+      <c r="F36" s="4" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="37" s="1" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A37" s="4" t="s">
+      <c r="A37" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="B37" s="4"/>
-      <c r="C37" s="4" t="s">
+      <c r="B37" s="3"/>
+      <c r="C37" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="F37" s="5" t="s">
+      <c r="F37" s="4" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="38" s="1" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A38" s="4" t="s">
+      <c r="A38" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="B38" s="4"/>
-      <c r="C38" s="4" t="s">
+      <c r="B38" s="3"/>
+      <c r="C38" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="F38" s="5" t="s">
+      <c r="F38" s="4" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="39" s="1" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A39" s="4" t="s">
+      <c r="A39" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="B39" s="4"/>
-      <c r="C39" s="4" t="s">
+      <c r="B39" s="3"/>
+      <c r="C39" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="F39" s="5" t="s">
+      <c r="F39" s="4" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="40" s="1" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A40" s="4" t="s">
+      <c r="A40" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="B40" s="4"/>
-      <c r="C40" s="4" t="s">
+      <c r="B40" s="3"/>
+      <c r="C40" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="F40" s="5" t="s">
+      <c r="F40" s="4" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="41" s="1" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A41" s="4" t="s">
+      <c r="A41" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="B41" s="4"/>
-      <c r="C41" s="4" t="s">
+      <c r="B41" s="3"/>
+      <c r="C41" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="F41" s="5" t="s">
+      <c r="F41" s="4" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="42" s="1" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A42" s="4" t="s">
+      <c r="A42" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="B42" s="4"/>
-      <c r="C42" s="4" t="s">
+      <c r="B42" s="3"/>
+      <c r="C42" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="F42" s="5" t="s">
+      <c r="F42" s="4" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="43" s="1" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A43" s="4" t="s">
+      <c r="A43" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="B43" s="4"/>
-      <c r="C43" s="4" t="s">
+      <c r="B43" s="3"/>
+      <c r="C43" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="F43" s="5" t="s">
+      <c r="F43" s="4" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="44" s="1" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A44" s="4" t="s">
+      <c r="A44" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="B44" s="4"/>
-      <c r="C44" s="4" t="s">
+      <c r="B44" s="3"/>
+      <c r="C44" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="F44" s="5" t="s">
+      <c r="F44" s="4" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="45" s="1" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A45" s="4" t="s">
+      <c r="A45" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="B45" s="4"/>
-      <c r="C45" s="4" t="s">
+      <c r="B45" s="3"/>
+      <c r="C45" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="F45" s="5" t="s">
+      <c r="F45" s="4" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="46" s="1" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A46" s="4" t="s">
+      <c r="A46" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="B46" s="4"/>
-      <c r="C46" s="4" t="s">
+      <c r="B46" s="3"/>
+      <c r="C46" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="F46" s="5" t="s">
+      <c r="F46" s="4" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="47" s="1" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A47" s="4" t="s">
+      <c r="A47" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="B47" s="4"/>
-      <c r="C47" s="4" t="s">
+      <c r="B47" s="3"/>
+      <c r="C47" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="F47" s="5" t="s">
+      <c r="F47" s="4" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="48" s="1" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A48" s="4" t="s">
+      <c r="A48" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="B48" s="4"/>
-      <c r="C48" s="4" t="s">
+      <c r="B48" s="3"/>
+      <c r="C48" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="F48" s="5" t="s">
+      <c r="F48" s="4" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="49" s="1" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A49" s="4" t="s">
+      <c r="A49" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="B49" s="4"/>
-      <c r="C49" s="4" t="s">
+      <c r="B49" s="3"/>
+      <c r="C49" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="F49" s="5" t="s">
+      <c r="F49" s="4" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="50" s="1" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A50" s="4" t="s">
+      <c r="A50" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="B50" s="4"/>
-      <c r="C50" s="4" t="s">
+      <c r="B50" s="3"/>
+      <c r="C50" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="F50" s="5" t="s">
+      <c r="F50" s="4" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="51" s="1" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A51" s="4" t="s">
+      <c r="A51" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="B51" s="4"/>
-      <c r="C51" s="4" t="s">
+      <c r="B51" s="3"/>
+      <c r="C51" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="F51" s="5" t="s">
+      <c r="F51" s="4" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="52" s="1" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A52" s="4" t="s">
+      <c r="A52" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="B52" s="4"/>
-      <c r="C52" s="4" t="s">
+      <c r="B52" s="3"/>
+      <c r="C52" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="F52" s="5" t="s">
+      <c r="F52" s="4" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="53" s="1" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A53" s="4" t="s">
+      <c r="A53" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="B53" s="4"/>
-      <c r="C53" s="4" t="s">
+      <c r="B53" s="3"/>
+      <c r="C53" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="F53" s="5" t="s">
+      <c r="F53" s="4" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="54" s="1" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A54" s="4" t="s">
+      <c r="A54" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="B54" s="4"/>
-      <c r="C54" s="4" t="s">
+      <c r="B54" s="3"/>
+      <c r="C54" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="F54" s="5" t="s">
+      <c r="F54" s="4" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="55" s="1" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A55" s="4" t="s">
+      <c r="A55" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="B55" s="4"/>
-      <c r="C55" s="4" t="s">
+      <c r="B55" s="3"/>
+      <c r="C55" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="F55" s="5" t="s">
+      <c r="F55" s="4" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="56" s="1" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A56" s="4" t="s">
+      <c r="A56" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="B56" s="4"/>
-      <c r="C56" s="4" t="s">
+      <c r="B56" s="3"/>
+      <c r="C56" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="F56" s="5" t="s">
+      <c r="F56" s="4" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="57" s="1" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A57" s="4" t="s">
+      <c r="A57" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="B57" s="4"/>
-      <c r="C57" s="4" t="s">
+      <c r="B57" s="3"/>
+      <c r="C57" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="F57" s="5" t="s">
+      <c r="F57" s="4" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="58" s="1" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A58" s="4" t="s">
+      <c r="A58" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="B58" s="4"/>
-      <c r="C58" s="4" t="s">
+      <c r="B58" s="3"/>
+      <c r="C58" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="F58" s="5" t="s">
+      <c r="F58" s="4" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="59" s="1" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A59" s="4" t="s">
+      <c r="A59" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="B59" s="4"/>
-      <c r="C59" s="4" t="s">
+      <c r="B59" s="3"/>
+      <c r="C59" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="F59" s="5" t="s">
+      <c r="F59" s="4" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="60" s="1" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A60" s="4" t="s">
+      <c r="A60" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="B60" s="4"/>
-      <c r="C60" s="4" t="s">
+      <c r="B60" s="3"/>
+      <c r="C60" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="F60" s="5" t="s">
+      <c r="F60" s="4" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="61" s="1" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A61" s="4" t="s">
+      <c r="A61" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="B61" s="4"/>
-      <c r="C61" s="4" t="s">
+      <c r="B61" s="3"/>
+      <c r="C61" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="F61" s="5" t="s">
+      <c r="F61" s="4" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="62" s="1" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A62" s="4" t="s">
+      <c r="A62" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="B62" s="4"/>
-      <c r="C62" s="4" t="s">
+      <c r="B62" s="3"/>
+      <c r="C62" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="F62" s="5" t="s">
+      <c r="F62" s="4" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="63" s="1" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A63" s="4" t="s">
+      <c r="A63" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="B63" s="4"/>
-      <c r="C63" s="4" t="s">
+      <c r="B63" s="3"/>
+      <c r="C63" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="F63" s="5" t="s">
+      <c r="F63" s="4" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="64" s="1" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A64" s="4" t="s">
+      <c r="A64" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="B64" s="4"/>
-      <c r="C64" s="4" t="s">
+      <c r="B64" s="3"/>
+      <c r="C64" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="F64" s="5" t="s">
+      <c r="F64" s="4" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="65" s="1" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A65" s="4" t="s">
+      <c r="A65" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="B65" s="4"/>
-      <c r="C65" s="4" t="s">
+      <c r="B65" s="3"/>
+      <c r="C65" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="F65" s="5" t="s">
+      <c r="F65" s="4" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="66" s="1" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A66" s="4" t="s">
+      <c r="A66" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="B66" s="4"/>
-      <c r="C66" s="4" t="s">
+      <c r="B66" s="3"/>
+      <c r="C66" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="F66" s="5" t="s">
+      <c r="F66" s="4" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="67" s="1" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A67" s="4" t="s">
+      <c r="A67" s="3" t="s">
         <v>197</v>
       </c>
-      <c r="B67" s="4"/>
-      <c r="C67" s="4" t="s">
+      <c r="B67" s="3"/>
+      <c r="C67" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="F67" s="5" t="s">
+      <c r="F67" s="4" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="68" s="1" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A68" s="4" t="s">
+      <c r="A68" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="B68" s="4"/>
-      <c r="C68" s="4" t="s">
+      <c r="B68" s="3"/>
+      <c r="C68" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="F68" s="5" t="s">
+      <c r="F68" s="4" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="69" s="1" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A69" s="4" t="s">
+      <c r="A69" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="B69" s="4"/>
-      <c r="C69" s="4" t="s">
+      <c r="B69" s="3"/>
+      <c r="C69" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="F69" s="5" t="s">
+      <c r="F69" s="4" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="70" s="1" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A70" s="4" t="s">
+      <c r="A70" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="B70" s="4"/>
-      <c r="C70" s="4" t="s">
+      <c r="B70" s="3"/>
+      <c r="C70" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="F70" s="5" t="s">
+      <c r="F70" s="4" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="71" s="1" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A71" s="4" t="s">
+      <c r="A71" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="B71" s="4"/>
-      <c r="C71" s="4" t="s">
+      <c r="B71" s="3"/>
+      <c r="C71" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="F71" s="5" t="s">
+      <c r="F71" s="4" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="72" s="1" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A72" s="4"/>
-      <c r="B72" s="4"/>
-      <c r="C72" s="4"/>
-      <c r="F72" s="5"/>
+      <c r="A72" s="3"/>
+      <c r="B72" s="3"/>
+      <c r="C72" s="3"/>
+      <c r="F72" s="4"/>
     </row>
     <row r="73" s="1" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A73" s="4"/>
-      <c r="B73" s="4"/>
-      <c r="C73" s="4"/>
-      <c r="F73" s="5"/>
+      <c r="A73" s="3"/>
+      <c r="B73" s="3"/>
+      <c r="C73" s="3"/>
+      <c r="F73" s="4"/>
     </row>
     <row r="74" s="1" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A74" s="4"/>
-      <c r="B74" s="4"/>
-      <c r="C74" s="4"/>
-      <c r="F74" s="5"/>
+      <c r="A74" s="3"/>
+      <c r="B74" s="3"/>
+      <c r="C74" s="3"/>
+      <c r="F74" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6007,20 +5973,20 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.81818181818182" defaultRowHeight="14" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="11.1818181818182" style="2" customWidth="1"/>
-    <col min="2" max="2" width="10.6363636363636" style="2" customWidth="1"/>
-    <col min="3" max="3" width="126.181818181818" style="3" customWidth="1"/>
-    <col min="4" max="16384" width="9.81818181818182" style="2"/>
+    <col min="1" max="1" width="11.1818181818182" style="1" customWidth="1"/>
+    <col min="2" max="2" width="10.6363636363636" style="1" customWidth="1"/>
+    <col min="3" max="3" width="126.181818181818" style="2" customWidth="1"/>
+    <col min="4" max="16384" width="9.81818181818182" style="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
@@ -6029,141 +5995,141 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4" t="s">
+      <c r="B2" s="3"/>
+      <c r="C2" s="3" t="s">
         <v>208</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="4" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="3" t="s">
         <v>210</v>
       </c>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4" t="s">
+      <c r="B3" s="3"/>
+      <c r="C3" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="4" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="3" t="s">
         <v>212</v>
       </c>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4" t="s">
+      <c r="B4" s="3"/>
+      <c r="C4" s="3" t="s">
         <v>213</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F4" s="4" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="3" t="s">
         <v>214</v>
       </c>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4" t="s">
+      <c r="B5" s="3"/>
+      <c r="C5" s="3" t="s">
         <v>215</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="F5" s="4" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="3" t="s">
         <v>216</v>
       </c>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4" t="s">
+      <c r="B6" s="3"/>
+      <c r="C6" s="3" t="s">
         <v>217</v>
       </c>
-      <c r="F6" s="5" t="s">
+      <c r="F6" s="4" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="7" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="3" t="s">
         <v>218</v>
       </c>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4" t="s">
+      <c r="B7" s="3"/>
+      <c r="C7" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="F7" s="5" t="s">
+      <c r="F7" s="4" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="8" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4" t="s">
+      <c r="B8" s="3"/>
+      <c r="C8" s="3" t="s">
         <v>221</v>
       </c>
-      <c r="F8" s="5" t="s">
+      <c r="F8" s="4" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="9" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="3" t="s">
         <v>222</v>
       </c>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4" t="s">
+      <c r="B9" s="3"/>
+      <c r="C9" s="3" t="s">
         <v>223</v>
       </c>
-      <c r="F9" s="5" t="s">
+      <c r="F9" s="4" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="10" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="F10" s="5"/>
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="F10" s="4"/>
     </row>
     <row r="11" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="F11" s="5"/>
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="F11" s="4"/>
     </row>
     <row r="12" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="F12" s="5"/>
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="F12" s="4"/>
     </row>
     <row r="13" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
-      <c r="A13" s="4"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="F13" s="5"/>
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="F13" s="4"/>
     </row>
     <row r="14" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
-      <c r="A14" s="4"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="F14" s="5"/>
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="F14" s="4"/>
     </row>
     <row r="15" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
-      <c r="A15" s="4"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-      <c r="F15" s="5"/>
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="F15" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6178,26 +6144,26 @@
   <sheetPr/>
   <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="$A1:$XFD20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.81818181818182" defaultRowHeight="13.8" customHeight="1" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="15.8181818181818" style="2" customWidth="1"/>
-    <col min="2" max="2" width="9.81818181818182" style="2"/>
-    <col min="3" max="3" width="101.363636363636" style="3" customWidth="1"/>
-    <col min="4" max="16384" width="9.81818181818182" style="2"/>
+    <col min="1" max="1" width="15.8181818181818" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.81818181818182" style="1"/>
+    <col min="3" max="3" width="101.363636363636" style="2" customWidth="1"/>
+    <col min="4" max="16384" width="9.81818181818182" style="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
@@ -6206,231 +6172,231 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="3" t="s">
         <v>224</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4" t="s">
+      <c r="B2" s="3"/>
+      <c r="C2" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="4" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="3" t="s">
         <v>226</v>
       </c>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4" t="s">
+      <c r="B3" s="3"/>
+      <c r="C3" s="3" t="s">
         <v>227</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="4" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="3" t="s">
         <v>228</v>
       </c>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4" t="s">
+      <c r="B4" s="3"/>
+      <c r="C4" s="3" t="s">
         <v>229</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F4" s="4" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="3" t="s">
         <v>230</v>
       </c>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4" t="s">
+      <c r="B5" s="3"/>
+      <c r="C5" s="3" t="s">
         <v>231</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="F5" s="4" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="3" t="s">
         <v>232</v>
       </c>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4" t="s">
+      <c r="B6" s="3"/>
+      <c r="C6" s="3" t="s">
         <v>233</v>
       </c>
-      <c r="F6" s="5" t="s">
+      <c r="F6" s="4" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="7" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="3" t="s">
         <v>234</v>
       </c>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4" t="s">
+      <c r="B7" s="3"/>
+      <c r="C7" s="3" t="s">
         <v>235</v>
       </c>
-      <c r="F7" s="5" t="s">
+      <c r="F7" s="4" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="8" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="3" t="s">
         <v>236</v>
       </c>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4" t="s">
+      <c r="B8" s="3"/>
+      <c r="C8" s="3" t="s">
         <v>237</v>
       </c>
-      <c r="F8" s="5" t="s">
+      <c r="F8" s="4" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="9" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="3" t="s">
         <v>238</v>
       </c>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4" t="s">
+      <c r="B9" s="3"/>
+      <c r="C9" s="3" t="s">
         <v>239</v>
       </c>
-      <c r="F9" s="5" t="s">
+      <c r="F9" s="4" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="10" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="3" t="s">
         <v>240</v>
       </c>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4" t="s">
+      <c r="B10" s="3"/>
+      <c r="C10" s="3" t="s">
         <v>241</v>
       </c>
-      <c r="F10" s="5" t="s">
+      <c r="F10" s="4" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="11" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="3" t="s">
         <v>242</v>
       </c>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4" t="s">
+      <c r="B11" s="3"/>
+      <c r="C11" s="3" t="s">
         <v>243</v>
       </c>
-      <c r="F11" s="5" t="s">
+      <c r="F11" s="4" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="12" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="3" t="s">
         <v>244</v>
       </c>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4" t="s">
+      <c r="B12" s="3"/>
+      <c r="C12" s="3" t="s">
         <v>245</v>
       </c>
-      <c r="F12" s="5" t="s">
+      <c r="F12" s="4" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="13" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
-      <c r="A13" s="4" t="s">
+      <c r="A13" s="3" t="s">
         <v>246</v>
       </c>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4" t="s">
+      <c r="B13" s="3"/>
+      <c r="C13" s="3" t="s">
         <v>247</v>
       </c>
-      <c r="F13" s="5" t="s">
+      <c r="F13" s="4" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="14" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
-      <c r="A14" s="4" t="s">
+      <c r="A14" s="3" t="s">
         <v>248</v>
       </c>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4" t="s">
+      <c r="B14" s="3"/>
+      <c r="C14" s="3" t="s">
         <v>249</v>
       </c>
-      <c r="F14" s="5" t="s">
+      <c r="F14" s="4" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="15" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
-      <c r="A15" s="4" t="s">
+      <c r="A15" s="3" t="s">
         <v>250</v>
       </c>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4" t="s">
+      <c r="B15" s="3"/>
+      <c r="C15" s="3" t="s">
         <v>251</v>
       </c>
-      <c r="F15" s="5" t="s">
+      <c r="F15" s="4" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="16" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
-      <c r="A16" s="4" t="s">
+      <c r="A16" s="3" t="s">
         <v>252</v>
       </c>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4" t="s">
+      <c r="B16" s="3"/>
+      <c r="C16" s="3" t="s">
         <v>253</v>
       </c>
-      <c r="F16" s="5" t="s">
+      <c r="F16" s="4" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="17" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
-      <c r="A17" s="4" t="s">
+      <c r="A17" s="3" t="s">
         <v>254</v>
       </c>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4" t="s">
+      <c r="B17" s="3"/>
+      <c r="C17" s="3" t="s">
         <v>255</v>
       </c>
-      <c r="F17" s="5" t="s">
+      <c r="F17" s="4" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="18" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
-      <c r="A18" s="4" t="s">
+      <c r="A18" s="3" t="s">
         <v>256</v>
       </c>
-      <c r="B18" s="4"/>
-      <c r="C18" s="4" t="s">
+      <c r="B18" s="3"/>
+      <c r="C18" s="3" t="s">
         <v>257</v>
       </c>
-      <c r="F18" s="5" t="s">
+      <c r="F18" s="4" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="19" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
-      <c r="A19" s="4" t="s">
+      <c r="A19" s="3" t="s">
         <v>258</v>
       </c>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4" t="s">
+      <c r="B19" s="3"/>
+      <c r="C19" s="3" t="s">
         <v>259</v>
       </c>
-      <c r="F19" s="5" t="s">
+      <c r="F19" s="4" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="20" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
-      <c r="A20" s="4"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
-      <c r="F20" s="5"/>
+      <c r="A20" s="3"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="F20" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/builtins/data/helpdoc/DND/15_菲资本的巨龙宝库FTD.xlsx
+++ b/builtins/data/helpdoc/DND/15_菲资本的巨龙宝库FTD.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18530" windowHeight="7270" firstSheet="2" activeTab="2"/>
+    <workbookView windowWidth="28800" windowHeight="12375" firstSheet="2" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="FTD职业" sheetId="6" r:id="rId1"/>
@@ -678,7 +678,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="261">
   <si>
     <t>Key</t>
   </si>
@@ -985,6 +985,9 @@
 你从你的额头处释放一道闪闪发光的灵能长矛，瞄准法术范围内你可见的一个生物。或者，你可以说出一个生物的名字。如果被唤名的生物身处法术范围内，即使你无法看见它，它也会成为法术的目标。如果被唤名的生物不处于法术范围内，长矛会消失并且没有任何效果。
 目标必须成功通过一次智力豁免，否则将受到7d6点心灵伤害并陷入失能，直至你的下回合开始。如果豁免成功，它只承受一半伤害并且不会失能。
 升环施法效应：当你用5环或更高的法术位施展此法术时，你使用的法术位每比4环高一环，法术的伤害增加1d6。</t>
+  </si>
+  <si>
+    <t>雾凇霜缚</t>
   </si>
   <si>
     <t>莱姆束缚之霜</t>
@@ -3445,7 +3448,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -3458,34 +3461,6 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3502,14 +3477,6 @@
       <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3549,6 +3516,21 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3599,7 +3581,28 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3621,55 +3624,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3687,31 +3648,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3735,6 +3684,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -3747,7 +3708,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3771,7 +3756,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3795,6 +3792,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -3812,21 +3815,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -3859,6 +3847,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3915,148 +3918,148 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -4077,52 +4080,52 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
     <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
@@ -4426,12 +4429,12 @@
       <selection activeCell="A7" sqref="$A7:$XFD7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="18.9090909090909" customWidth="1"/>
-    <col min="2" max="2" width="17.2727272727273" customWidth="1"/>
-    <col min="3" max="3" width="88.0909090909091" style="6" customWidth="1"/>
-    <col min="5" max="5" width="7.89090909090909" customWidth="1"/>
+    <col min="1" max="1" width="18.9083333333333" customWidth="1"/>
+    <col min="2" max="2" width="17.275" customWidth="1"/>
+    <col min="3" max="3" width="88.0916666666667" style="6" customWidth="1"/>
+    <col min="5" max="5" width="7.89166666666667" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
@@ -4618,12 +4621,12 @@
       <selection activeCell="A2" sqref="$A2:$XFD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.81818181818182" defaultRowHeight="14" outlineLevelRow="5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9.81666666666667" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="18.5454545454545" style="1" customWidth="1"/>
-    <col min="2" max="2" width="9.45454545454546" style="1" customWidth="1"/>
-    <col min="3" max="3" width="126.227272727273" style="2" customWidth="1"/>
-    <col min="4" max="16384" width="9.81818181818182" style="1"/>
+    <col min="1" max="1" width="18.5416666666667" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.45833333333333" style="1" customWidth="1"/>
+    <col min="3" max="3" width="126.225" style="2" customWidth="1"/>
+    <col min="4" max="16384" width="9.81666666666667" style="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
@@ -4708,16 +4711,16 @@
   <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="19.5545454545455" style="5" customWidth="1"/>
-    <col min="2" max="2" width="21.3363636363636" style="5" customWidth="1"/>
-    <col min="3" max="3" width="99.7818181818182" style="5" customWidth="1"/>
-    <col min="4" max="4" width="27.4454545454545" style="5" customWidth="1"/>
-    <col min="5" max="5" width="17.8909090909091" style="5" customWidth="1"/>
+    <col min="1" max="1" width="19.5583333333333" style="5" customWidth="1"/>
+    <col min="2" max="2" width="21.3333333333333" style="5" customWidth="1"/>
+    <col min="3" max="3" width="99.7833333333333" style="5" customWidth="1"/>
+    <col min="4" max="4" width="27.4416666666667" style="5" customWidth="1"/>
+    <col min="5" max="5" width="17.8916666666667" style="5" customWidth="1"/>
     <col min="6" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
@@ -4822,9 +4825,11 @@
       <c r="A7" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="B7" s="3"/>
+      <c r="B7" s="3" t="s">
+        <v>55</v>
+      </c>
       <c r="C7" s="3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>43</v>
@@ -4835,13 +4840,13 @@
     </row>
     <row r="8" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
       <c r="A8" s="3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>43</v>
@@ -4969,12 +4974,12 @@
       <selection activeCell="A2" sqref="$A2:$XFD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.81818181818182" defaultRowHeight="14.4" customHeight="1" outlineLevelRow="6" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9.81666666666667" defaultRowHeight="14.4" customHeight="1" outlineLevelRow="6" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="12.6363636363636" style="1" customWidth="1"/>
-    <col min="2" max="2" width="11.2727272727273" style="1" customWidth="1"/>
-    <col min="3" max="3" width="126.181818181818" style="2" customWidth="1"/>
-    <col min="4" max="16384" width="9.81818181818182" style="1"/>
+    <col min="1" max="1" width="12.6333333333333" style="1" customWidth="1"/>
+    <col min="2" max="2" width="11.275" style="1" customWidth="1"/>
+    <col min="3" max="3" width="126.183333333333" style="2" customWidth="1"/>
+    <col min="4" max="16384" width="9.81666666666667" style="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" customHeight="1" spans="1:6">
@@ -4999,38 +5004,38 @@
     </row>
     <row r="2" s="1" customFormat="1" customHeight="1" spans="1:6">
       <c r="A2" s="3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" customHeight="1" spans="1:6">
       <c r="A3" s="3" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1" customHeight="1" spans="1:6">
       <c r="A4" s="3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" customHeight="1" spans="1:6">
@@ -5068,12 +5073,12 @@
       <selection activeCell="A5" sqref="$A5:$XFD5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.81818181818182" defaultRowHeight="14.4" customHeight="1" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9.81666666666667" defaultRowHeight="14.4" customHeight="1" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="26.4181818181818" style="1" customWidth="1"/>
-    <col min="2" max="2" width="17.6909090909091" style="1" customWidth="1"/>
-    <col min="3" max="3" width="126.181818181818" style="2" customWidth="1"/>
-    <col min="4" max="16384" width="9.81818181818182" style="1"/>
+    <col min="1" max="1" width="26.4166666666667" style="1" customWidth="1"/>
+    <col min="2" max="2" width="17.6916666666667" style="1" customWidth="1"/>
+    <col min="3" max="3" width="126.183333333333" style="2" customWidth="1"/>
+    <col min="4" max="16384" width="9.81666666666667" style="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" customHeight="1" spans="1:6">
@@ -5098,842 +5103,842 @@
     </row>
     <row r="2" s="1" customFormat="1" customHeight="1" spans="1:6">
       <c r="A2" s="3" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" customHeight="1" spans="1:6">
       <c r="A3" s="3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1" customHeight="1" spans="1:6">
       <c r="A4" s="3" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="3" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" customHeight="1" spans="1:6">
       <c r="A5" s="3" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="3" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" customHeight="1" spans="1:6">
       <c r="A6" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B6" s="3"/>
       <c r="C6" s="3" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="7" s="1" customFormat="1" customHeight="1" spans="1:6">
       <c r="A7" s="3" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B7" s="3"/>
       <c r="C7" s="3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="8" s="1" customFormat="1" customHeight="1" spans="1:6">
       <c r="A8" s="3" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B8" s="3"/>
       <c r="C8" s="3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="9" s="1" customFormat="1" customHeight="1" spans="1:6">
       <c r="A9" s="3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B9" s="3"/>
       <c r="C9" s="3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="10" s="1" customFormat="1" customHeight="1" spans="1:6">
       <c r="A10" s="3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B10" s="3"/>
       <c r="C10" s="3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="11" s="1" customFormat="1" customHeight="1" spans="1:6">
       <c r="A11" s="3" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B11" s="3"/>
       <c r="C11" s="3" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="12" s="1" customFormat="1" customHeight="1" spans="1:6">
       <c r="A12" s="3" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B12" s="3"/>
       <c r="C12" s="3" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="13" s="1" customFormat="1" customHeight="1" spans="1:6">
       <c r="A13" s="3" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B13" s="3"/>
       <c r="C13" s="3" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="14" s="1" customFormat="1" customHeight="1" spans="1:6">
       <c r="A14" s="3" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B14" s="3"/>
       <c r="C14" s="3" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="15" s="1" customFormat="1" customHeight="1" spans="1:6">
       <c r="A15" s="3" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B15" s="3"/>
       <c r="C15" s="3" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="16" s="1" customFormat="1" customHeight="1" spans="1:6">
       <c r="A16" s="3" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B16" s="3"/>
       <c r="C16" s="3" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="17" s="1" customFormat="1" customHeight="1" spans="1:6">
       <c r="A17" s="3" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B17" s="3"/>
       <c r="C17" s="3" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="18" s="1" customFormat="1" customHeight="1" spans="1:6">
       <c r="A18" s="3" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B18" s="3"/>
       <c r="C18" s="3" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="19" s="1" customFormat="1" customHeight="1" spans="1:6">
       <c r="A19" s="3" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B19" s="3"/>
       <c r="C19" s="3" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="20" s="1" customFormat="1" customHeight="1" spans="1:6">
       <c r="A20" s="3" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B20" s="3"/>
       <c r="C20" s="3" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="21" s="1" customFormat="1" customHeight="1" spans="1:6">
       <c r="A21" s="3" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B21" s="3"/>
       <c r="C21" s="3" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="22" s="1" customFormat="1" customHeight="1" spans="1:6">
       <c r="A22" s="3" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B22" s="3"/>
       <c r="C22" s="3" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="23" s="1" customFormat="1" customHeight="1" spans="1:6">
       <c r="A23" s="3" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B23" s="3"/>
       <c r="C23" s="3" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="24" s="1" customFormat="1" customHeight="1" spans="1:6">
       <c r="A24" s="3" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B24" s="3"/>
       <c r="C24" s="3" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="25" s="1" customFormat="1" customHeight="1" spans="1:6">
       <c r="A25" s="3" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B25" s="3"/>
       <c r="C25" s="3" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="26" s="1" customFormat="1" customHeight="1" spans="1:6">
       <c r="A26" s="3" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B26" s="3"/>
       <c r="C26" s="3" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="27" s="1" customFormat="1" customHeight="1" spans="1:6">
       <c r="A27" s="3" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B27" s="3"/>
       <c r="C27" s="3" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="28" s="1" customFormat="1" customHeight="1" spans="1:6">
       <c r="A28" s="3" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B28" s="3"/>
       <c r="C28" s="3" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="29" s="1" customFormat="1" customHeight="1" spans="1:6">
       <c r="A29" s="3" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B29" s="3"/>
       <c r="C29" s="3" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="30" s="1" customFormat="1" customHeight="1" spans="1:6">
       <c r="A30" s="3" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B30" s="3"/>
       <c r="C30" s="3" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="31" s="1" customFormat="1" customHeight="1" spans="1:6">
       <c r="A31" s="3" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B31" s="3"/>
       <c r="C31" s="3" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="32" s="1" customFormat="1" customHeight="1" spans="1:6">
       <c r="A32" s="3" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B32" s="3"/>
       <c r="C32" s="3" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="33" s="1" customFormat="1" customHeight="1" spans="1:6">
       <c r="A33" s="3" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B33" s="3"/>
       <c r="C33" s="3" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="34" s="1" customFormat="1" customHeight="1" spans="1:6">
       <c r="A34" s="3" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B34" s="3"/>
       <c r="C34" s="3" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="35" s="1" customFormat="1" customHeight="1" spans="1:6">
       <c r="A35" s="3" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B35" s="3"/>
       <c r="C35" s="3" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="36" s="1" customFormat="1" customHeight="1" spans="1:6">
       <c r="A36" s="3" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B36" s="3"/>
       <c r="C36" s="3" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="37" s="1" customFormat="1" customHeight="1" spans="1:6">
       <c r="A37" s="3" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B37" s="3"/>
       <c r="C37" s="3" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="38" s="1" customFormat="1" customHeight="1" spans="1:6">
       <c r="A38" s="3" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B38" s="3"/>
       <c r="C38" s="3" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="39" s="1" customFormat="1" customHeight="1" spans="1:6">
       <c r="A39" s="3" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B39" s="3"/>
       <c r="C39" s="3" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="40" s="1" customFormat="1" customHeight="1" spans="1:6">
       <c r="A40" s="3" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B40" s="3"/>
       <c r="C40" s="3" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="41" s="1" customFormat="1" customHeight="1" spans="1:6">
       <c r="A41" s="3" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B41" s="3"/>
       <c r="C41" s="3" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="42" s="1" customFormat="1" customHeight="1" spans="1:6">
       <c r="A42" s="3" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B42" s="3"/>
       <c r="C42" s="3" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F42" s="4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="43" s="1" customFormat="1" customHeight="1" spans="1:6">
       <c r="A43" s="3" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B43" s="3"/>
       <c r="C43" s="3" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="44" s="1" customFormat="1" customHeight="1" spans="1:6">
       <c r="A44" s="3" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B44" s="3"/>
       <c r="C44" s="3" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="F44" s="4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="45" s="1" customFormat="1" customHeight="1" spans="1:6">
       <c r="A45" s="3" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B45" s="3"/>
       <c r="C45" s="3" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F45" s="4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="46" s="1" customFormat="1" customHeight="1" spans="1:6">
       <c r="A46" s="3" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B46" s="3"/>
       <c r="C46" s="3" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="F46" s="4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="47" s="1" customFormat="1" customHeight="1" spans="1:6">
       <c r="A47" s="3" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B47" s="3"/>
       <c r="C47" s="3" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="F47" s="4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="48" s="1" customFormat="1" customHeight="1" spans="1:6">
       <c r="A48" s="3" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B48" s="3"/>
       <c r="C48" s="3" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="F48" s="4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="49" s="1" customFormat="1" customHeight="1" spans="1:6">
       <c r="A49" s="3" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B49" s="3"/>
       <c r="C49" s="3" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="F49" s="4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="50" s="1" customFormat="1" customHeight="1" spans="1:6">
       <c r="A50" s="3" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B50" s="3"/>
       <c r="C50" s="3" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="F50" s="4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="51" s="1" customFormat="1" customHeight="1" spans="1:6">
       <c r="A51" s="3" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B51" s="3"/>
       <c r="C51" s="3" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="F51" s="4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="52" s="1" customFormat="1" customHeight="1" spans="1:6">
       <c r="A52" s="3" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B52" s="3"/>
       <c r="C52" s="3" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="F52" s="4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="53" s="1" customFormat="1" customHeight="1" spans="1:6">
       <c r="A53" s="3" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B53" s="3"/>
       <c r="C53" s="3" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="F53" s="4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="54" s="1" customFormat="1" customHeight="1" spans="1:6">
       <c r="A54" s="3" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B54" s="3"/>
       <c r="C54" s="3" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="F54" s="4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="55" s="1" customFormat="1" customHeight="1" spans="1:6">
       <c r="A55" s="3" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B55" s="3"/>
       <c r="C55" s="3" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="F55" s="4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="56" s="1" customFormat="1" customHeight="1" spans="1:6">
       <c r="A56" s="3" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B56" s="3"/>
       <c r="C56" s="3" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="F56" s="4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="57" s="1" customFormat="1" customHeight="1" spans="1:6">
       <c r="A57" s="3" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B57" s="3"/>
       <c r="C57" s="3" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="F57" s="4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="58" s="1" customFormat="1" customHeight="1" spans="1:6">
       <c r="A58" s="3" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B58" s="3"/>
       <c r="C58" s="3" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="F58" s="4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="59" s="1" customFormat="1" customHeight="1" spans="1:6">
       <c r="A59" s="3" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B59" s="3"/>
       <c r="C59" s="3" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="F59" s="4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="60" s="1" customFormat="1" customHeight="1" spans="1:6">
       <c r="A60" s="3" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B60" s="3"/>
       <c r="C60" s="3" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="F60" s="4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="61" s="1" customFormat="1" customHeight="1" spans="1:6">
       <c r="A61" s="3" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B61" s="3"/>
       <c r="C61" s="3" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="F61" s="4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="62" s="1" customFormat="1" customHeight="1" spans="1:6">
       <c r="A62" s="3" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B62" s="3"/>
       <c r="C62" s="3" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="F62" s="4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="63" s="1" customFormat="1" customHeight="1" spans="1:6">
       <c r="A63" s="3" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B63" s="3"/>
       <c r="C63" s="3" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="F63" s="4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="64" s="1" customFormat="1" customHeight="1" spans="1:6">
       <c r="A64" s="3" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B64" s="3"/>
       <c r="C64" s="3" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="F64" s="4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="65" s="1" customFormat="1" customHeight="1" spans="1:6">
       <c r="A65" s="3" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B65" s="3"/>
       <c r="C65" s="3" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="F65" s="4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="66" s="1" customFormat="1" customHeight="1" spans="1:6">
       <c r="A66" s="3" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B66" s="3"/>
       <c r="C66" s="3" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="F66" s="4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="67" s="1" customFormat="1" customHeight="1" spans="1:6">
       <c r="A67" s="3" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B67" s="3"/>
       <c r="C67" s="3" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="F67" s="4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="68" s="1" customFormat="1" customHeight="1" spans="1:6">
       <c r="A68" s="3" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B68" s="3"/>
       <c r="C68" s="3" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="F68" s="4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="69" s="1" customFormat="1" customHeight="1" spans="1:6">
       <c r="A69" s="3" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B69" s="3"/>
       <c r="C69" s="3" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="F69" s="4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="70" s="1" customFormat="1" customHeight="1" spans="1:6">
       <c r="A70" s="3" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B70" s="3"/>
       <c r="C70" s="3" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="F70" s="4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="71" s="1" customFormat="1" customHeight="1" spans="1:6">
       <c r="A71" s="3" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B71" s="3"/>
       <c r="C71" s="3" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="F71" s="4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="72" s="1" customFormat="1" customHeight="1" spans="1:6">
@@ -5971,12 +5976,12 @@
       <selection activeCell="A6" sqref="$A6:$XFD6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.81818181818182" defaultRowHeight="14" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9.81666666666667" defaultRowHeight="13.5" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="11.1818181818182" style="1" customWidth="1"/>
-    <col min="2" max="2" width="10.6363636363636" style="1" customWidth="1"/>
-    <col min="3" max="3" width="126.181818181818" style="2" customWidth="1"/>
-    <col min="4" max="16384" width="9.81818181818182" style="1"/>
+    <col min="1" max="1" width="11.1833333333333" style="1" customWidth="1"/>
+    <col min="2" max="2" width="10.6333333333333" style="1" customWidth="1"/>
+    <col min="3" max="3" width="126.183333333333" style="2" customWidth="1"/>
+    <col min="4" max="16384" width="9.81666666666667" style="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
@@ -6001,98 +6006,98 @@
     </row>
     <row r="2" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
       <c r="A2" s="3" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
       <c r="A3" s="3" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
       <c r="A4" s="3" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="3" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
       <c r="A5" s="3" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="3" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
       <c r="A6" s="3" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B6" s="3"/>
       <c r="C6" s="3" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="7" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
       <c r="A7" s="3" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B7" s="3"/>
       <c r="C7" s="3" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="8" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
       <c r="A8" s="3" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B8" s="3"/>
       <c r="C8" s="3" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="9" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
       <c r="A9" s="3" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B9" s="3"/>
       <c r="C9" s="3" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="10" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
@@ -6148,12 +6153,12 @@
       <selection activeCell="A1" sqref="$A1:$XFD20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.81818181818182" defaultRowHeight="13.8" customHeight="1" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9.81666666666667" defaultRowHeight="13.8" customHeight="1" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="15.8181818181818" style="1" customWidth="1"/>
-    <col min="2" max="2" width="9.81818181818182" style="1"/>
-    <col min="3" max="3" width="101.363636363636" style="2" customWidth="1"/>
-    <col min="4" max="16384" width="9.81818181818182" style="1"/>
+    <col min="1" max="1" width="15.8166666666667" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.81666666666667" style="1"/>
+    <col min="3" max="3" width="101.366666666667" style="2" customWidth="1"/>
+    <col min="4" max="16384" width="9.81666666666667" style="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
@@ -6178,11 +6183,11 @@
     </row>
     <row r="2" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
       <c r="A2" s="3" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>44</v>
@@ -6190,11 +6195,11 @@
     </row>
     <row r="3" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
       <c r="A3" s="3" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="F3" s="4" t="s">
         <v>44</v>
@@ -6202,11 +6207,11 @@
     </row>
     <row r="4" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
       <c r="A4" s="3" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="3" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>44</v>
@@ -6214,11 +6219,11 @@
     </row>
     <row r="5" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
       <c r="A5" s="3" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="3" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>44</v>
@@ -6226,11 +6231,11 @@
     </row>
     <row r="6" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
       <c r="A6" s="3" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B6" s="3"/>
       <c r="C6" s="3" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>44</v>
@@ -6238,11 +6243,11 @@
     </row>
     <row r="7" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
       <c r="A7" s="3" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B7" s="3"/>
       <c r="C7" s="3" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="F7" s="4" t="s">
         <v>44</v>
@@ -6250,11 +6255,11 @@
     </row>
     <row r="8" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
       <c r="A8" s="3" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B8" s="3"/>
       <c r="C8" s="3" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="F8" s="4" t="s">
         <v>44</v>
@@ -6262,11 +6267,11 @@
     </row>
     <row r="9" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
       <c r="A9" s="3" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B9" s="3"/>
       <c r="C9" s="3" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F9" s="4" t="s">
         <v>44</v>
@@ -6274,11 +6279,11 @@
     </row>
     <row r="10" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
       <c r="A10" s="3" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B10" s="3"/>
       <c r="C10" s="3" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="F10" s="4" t="s">
         <v>44</v>
@@ -6286,11 +6291,11 @@
     </row>
     <row r="11" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
       <c r="A11" s="3" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B11" s="3"/>
       <c r="C11" s="3" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="F11" s="4" t="s">
         <v>44</v>
@@ -6298,11 +6303,11 @@
     </row>
     <row r="12" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
       <c r="A12" s="3" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B12" s="3"/>
       <c r="C12" s="3" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="F12" s="4" t="s">
         <v>44</v>
@@ -6310,11 +6315,11 @@
     </row>
     <row r="13" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
       <c r="A13" s="3" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B13" s="3"/>
       <c r="C13" s="3" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="F13" s="4" t="s">
         <v>44</v>
@@ -6322,11 +6327,11 @@
     </row>
     <row r="14" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
       <c r="A14" s="3" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B14" s="3"/>
       <c r="C14" s="3" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="F14" s="4" t="s">
         <v>44</v>
@@ -6334,11 +6339,11 @@
     </row>
     <row r="15" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
       <c r="A15" s="3" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B15" s="3"/>
       <c r="C15" s="3" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="F15" s="4" t="s">
         <v>44</v>
@@ -6346,11 +6351,11 @@
     </row>
     <row r="16" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
       <c r="A16" s="3" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B16" s="3"/>
       <c r="C16" s="3" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="F16" s="4" t="s">
         <v>44</v>
@@ -6358,11 +6363,11 @@
     </row>
     <row r="17" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
       <c r="A17" s="3" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B17" s="3"/>
       <c r="C17" s="3" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="F17" s="4" t="s">
         <v>44</v>
@@ -6370,11 +6375,11 @@
     </row>
     <row r="18" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
       <c r="A18" s="3" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B18" s="3"/>
       <c r="C18" s="3" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="F18" s="4" t="s">
         <v>44</v>
@@ -6382,11 +6387,11 @@
     </row>
     <row r="19" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
       <c r="A19" s="3" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B19" s="3"/>
       <c r="C19" s="3" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="F19" s="4" t="s">
         <v>44</v>
